--- a/6- Ingenieria de producto/6.1 - Análisis/02- Backlog/MID_-_Backlog.xlsx
+++ b/6- Ingenieria de producto/6.1 - Análisis/02- Backlog/MID_-_Backlog.xlsx
@@ -1931,36 +1931,36 @@
     <t>HU-MID-ASIGDESC-006-Reactivar descuento de beneficiario</t>
   </si>
   <si>
-    <t>HU-MID-OFI-001-Registrar Oficio Judicial</t>
-  </si>
-  <si>
-    <t>HU-MID-OFI-002-Editar Oficio Judicial</t>
-  </si>
-  <si>
-    <t>HU-MID-OFI-003-Consultar Oficio Judicial</t>
-  </si>
-  <si>
     <t>Gestionar
  Oficios Judiciales</t>
   </si>
   <si>
-    <t>HU-MID-CALCOFI-001-Registrar Cálculo Oficio Judicial</t>
-  </si>
-  <si>
-    <t>HU-MID-CALCOFI-002-Editar Cálculo Oficio Judicial</t>
-  </si>
-  <si>
-    <t>HU-MID-CALCOFI-003-Consultar Cálculo Oficio Judicial</t>
-  </si>
-  <si>
     <t>Gestionar Cálculo
  Oficios Judiciales</t>
   </si>
   <si>
-    <t>HU-MID-CALCOFI-004-Registrar Baja Cálculo Oficio Judicial??</t>
-  </si>
-  <si>
-    <t>HU-MID-OFI-004-Registrar Baja Oficio Judicial??</t>
+    <t>HU-MID-OFI-ALI-001-Registrar Oficio Judicial Alimenticio</t>
+  </si>
+  <si>
+    <t>HU-MID-OFI-ALI-002-Editar Oficio Judicial  Alimenticio</t>
+  </si>
+  <si>
+    <t>HU-MID-OFI-ALI-003-Consultar Oficio Judicial  Alimenticio</t>
+  </si>
+  <si>
+    <t>HU-MID-OFI-ALI-004-Registrar Baja Oficio Judicial  Alimenticio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU-MID-CALC-ALI-001-Registrar Cálculo Alimenticio </t>
+  </si>
+  <si>
+    <t>HU-MID-CALC-ALI-002-Editar Cálculo Alimenticio</t>
+  </si>
+  <si>
+    <t>HU-MID-CALC-ALI-003-Consultar Cálculo Alimenticio</t>
+  </si>
+  <si>
+    <t>HU-MID-CALC-ALI-004-Registrar Baja Cálculo Alimenticio</t>
   </si>
 </sst>
 </file>
@@ -5053,18 +5053,105 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5089,91 +5176,55 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="111" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5233,9 +5284,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5263,54 +5311,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="111" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -5386,6 +5386,87 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5410,86 +5491,41 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5502,42 +5538,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5590,7 +5590,7 @@
         <xdr:cNvPr id="2" name="1 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5951,62 +5951,62 @@
   <sheetData>
     <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:14" s="2" customFormat="1" ht="64.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="401" t="s">
+      <c r="B2" s="389" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="402"/>
-      <c r="D2" s="402"/>
-      <c r="E2" s="402"/>
-      <c r="F2" s="402"/>
-      <c r="G2" s="402"/>
-      <c r="H2" s="402"/>
-      <c r="I2" s="402"/>
-      <c r="J2" s="402"/>
-      <c r="K2" s="402"/>
-      <c r="L2" s="402"/>
-      <c r="M2" s="403"/>
-      <c r="N2" s="404"/>
+      <c r="C2" s="390"/>
+      <c r="D2" s="390"/>
+      <c r="E2" s="390"/>
+      <c r="F2" s="390"/>
+      <c r="G2" s="390"/>
+      <c r="H2" s="390"/>
+      <c r="I2" s="390"/>
+      <c r="J2" s="390"/>
+      <c r="K2" s="390"/>
+      <c r="L2" s="390"/>
+      <c r="M2" s="391"/>
+      <c r="N2" s="392"/>
     </row>
     <row r="3" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="419" t="s">
+      <c r="B3" s="410" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="421" t="s">
+      <c r="C3" s="412" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="421" t="s">
+      <c r="D3" s="412" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="423" t="s">
+      <c r="E3" s="414" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="421" t="s">
+      <c r="F3" s="412" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="426" t="s">
+      <c r="G3" s="417" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="410" t="s">
+      <c r="H3" s="398" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="411"/>
-      <c r="J3" s="411"/>
+      <c r="I3" s="399"/>
+      <c r="J3" s="399"/>
       <c r="K3" s="163"/>
       <c r="L3" s="163"/>
-      <c r="M3" s="405" t="s">
+      <c r="M3" s="393" t="s">
         <v>141</v>
       </c>
-      <c r="N3" s="399" t="s">
+      <c r="N3" s="387" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="420"/>
-      <c r="C4" s="422"/>
-      <c r="D4" s="422"/>
-      <c r="E4" s="424"/>
-      <c r="F4" s="425"/>
-      <c r="G4" s="427"/>
+      <c r="B4" s="411"/>
+      <c r="C4" s="413"/>
+      <c r="D4" s="413"/>
+      <c r="E4" s="415"/>
+      <c r="F4" s="416"/>
+      <c r="G4" s="418"/>
       <c r="H4" s="151" t="s">
         <v>126</v>
       </c>
@@ -6020,14 +6020,14 @@
         <v>141</v>
       </c>
       <c r="L4" s="162"/>
-      <c r="M4" s="406"/>
-      <c r="N4" s="400"/>
+      <c r="M4" s="394"/>
+      <c r="N4" s="388"/>
     </row>
     <row r="5" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="412" t="s">
+      <c r="B5" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="387" t="s">
+      <c r="C5" s="403" t="s">
         <v>159</v>
       </c>
       <c r="D5" s="147" t="s">
@@ -6048,8 +6048,8 @@
       <c r="N5" s="169"/>
     </row>
     <row r="6" spans="2:14" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="413"/>
-      <c r="C6" s="415"/>
+      <c r="B6" s="401"/>
+      <c r="C6" s="404"/>
       <c r="D6" s="132" t="s">
         <v>27</v>
       </c>
@@ -6065,8 +6065,8 @@
       <c r="N6" s="169"/>
     </row>
     <row r="7" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="414"/>
-      <c r="C7" s="389"/>
+      <c r="B7" s="402"/>
+      <c r="C7" s="405"/>
       <c r="D7" s="148" t="s">
         <v>28</v>
       </c>
@@ -6085,8 +6085,8 @@
       <c r="N7" s="169"/>
     </row>
     <row r="8" spans="2:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="414"/>
-      <c r="C8" s="389"/>
+      <c r="B8" s="402"/>
+      <c r="C8" s="405"/>
       <c r="D8" s="153" t="s">
         <v>49</v>
       </c>
@@ -6105,9 +6105,9 @@
       <c r="N8" s="185"/>
     </row>
     <row r="9" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="414"/>
-      <c r="C9" s="389"/>
-      <c r="D9" s="407" t="s">
+      <c r="B9" s="402"/>
+      <c r="C9" s="405"/>
+      <c r="D9" s="395" t="s">
         <v>158</v>
       </c>
       <c r="E9" s="196">
@@ -6138,9 +6138,9 @@
       <c r="N9" s="204"/>
     </row>
     <row r="10" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="414"/>
-      <c r="C10" s="389"/>
-      <c r="D10" s="408"/>
+      <c r="B10" s="402"/>
+      <c r="C10" s="405"/>
+      <c r="D10" s="396"/>
       <c r="E10" s="205">
         <v>2</v>
       </c>
@@ -6159,9 +6159,9 @@
       <c r="N10" s="213"/>
     </row>
     <row r="11" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="414"/>
-      <c r="C11" s="389"/>
-      <c r="D11" s="408"/>
+      <c r="B11" s="402"/>
+      <c r="C11" s="405"/>
+      <c r="D11" s="396"/>
       <c r="E11" s="205">
         <v>3</v>
       </c>
@@ -6180,9 +6180,9 @@
       <c r="N11" s="213"/>
     </row>
     <row r="12" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="414"/>
-      <c r="C12" s="389"/>
-      <c r="D12" s="408"/>
+      <c r="B12" s="402"/>
+      <c r="C12" s="405"/>
+      <c r="D12" s="396"/>
       <c r="E12" s="205">
         <v>4</v>
       </c>
@@ -6201,9 +6201,9 @@
       <c r="N12" s="213"/>
     </row>
     <row r="13" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="414"/>
-      <c r="C13" s="389"/>
-      <c r="D13" s="408"/>
+      <c r="B13" s="402"/>
+      <c r="C13" s="405"/>
+      <c r="D13" s="396"/>
       <c r="E13" s="22">
         <v>5</v>
       </c>
@@ -6221,9 +6221,9 @@
       <c r="N13" s="169"/>
     </row>
     <row r="14" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="414"/>
-      <c r="C14" s="389"/>
-      <c r="D14" s="408"/>
+      <c r="B14" s="402"/>
+      <c r="C14" s="405"/>
+      <c r="D14" s="396"/>
       <c r="E14" s="22">
         <v>6</v>
       </c>
@@ -6241,9 +6241,9 @@
       <c r="N14" s="169"/>
     </row>
     <row r="15" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="414"/>
-      <c r="C15" s="389"/>
-      <c r="D15" s="408"/>
+      <c r="B15" s="402"/>
+      <c r="C15" s="405"/>
+      <c r="D15" s="396"/>
       <c r="E15" s="22">
         <v>7</v>
       </c>
@@ -6261,9 +6261,9 @@
       <c r="N15" s="169"/>
     </row>
     <row r="16" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="414"/>
-      <c r="C16" s="389"/>
-      <c r="D16" s="408"/>
+      <c r="B16" s="402"/>
+      <c r="C16" s="405"/>
+      <c r="D16" s="396"/>
       <c r="E16" s="22">
         <v>8</v>
       </c>
@@ -6281,9 +6281,9 @@
       <c r="N16" s="169"/>
     </row>
     <row r="17" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="414"/>
-      <c r="C17" s="389"/>
-      <c r="D17" s="408"/>
+      <c r="B17" s="402"/>
+      <c r="C17" s="405"/>
+      <c r="D17" s="396"/>
       <c r="E17" s="205">
         <v>9</v>
       </c>
@@ -6302,9 +6302,9 @@
       <c r="N17" s="213"/>
     </row>
     <row r="18" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="414"/>
-      <c r="C18" s="389"/>
-      <c r="D18" s="408"/>
+      <c r="B18" s="402"/>
+      <c r="C18" s="405"/>
+      <c r="D18" s="396"/>
       <c r="E18" s="205">
         <v>10</v>
       </c>
@@ -6323,9 +6323,9 @@
       <c r="N18" s="213"/>
     </row>
     <row r="19" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="414"/>
-      <c r="C19" s="389"/>
-      <c r="D19" s="408"/>
+      <c r="B19" s="402"/>
+      <c r="C19" s="405"/>
+      <c r="D19" s="396"/>
       <c r="E19" s="22">
         <v>11</v>
       </c>
@@ -6342,9 +6342,9 @@
       <c r="N19" s="169"/>
     </row>
     <row r="20" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="414"/>
-      <c r="C20" s="389"/>
-      <c r="D20" s="408"/>
+      <c r="B20" s="402"/>
+      <c r="C20" s="405"/>
+      <c r="D20" s="396"/>
       <c r="E20" s="22">
         <v>12</v>
       </c>
@@ -6361,9 +6361,9 @@
       <c r="N20" s="169"/>
     </row>
     <row r="21" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="414"/>
-      <c r="C21" s="389"/>
-      <c r="D21" s="408"/>
+      <c r="B21" s="402"/>
+      <c r="C21" s="405"/>
+      <c r="D21" s="396"/>
       <c r="E21" s="205">
         <v>13</v>
       </c>
@@ -6380,9 +6380,9 @@
       <c r="N21" s="213"/>
     </row>
     <row r="22" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="414"/>
-      <c r="C22" s="389"/>
-      <c r="D22" s="408"/>
+      <c r="B22" s="402"/>
+      <c r="C22" s="405"/>
+      <c r="D22" s="396"/>
       <c r="E22" s="205">
         <v>14</v>
       </c>
@@ -6399,9 +6399,9 @@
       <c r="N22" s="213"/>
     </row>
     <row r="23" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="414"/>
-      <c r="C23" s="389"/>
-      <c r="D23" s="408"/>
+      <c r="B23" s="402"/>
+      <c r="C23" s="405"/>
+      <c r="D23" s="396"/>
       <c r="E23" s="22">
         <v>15</v>
       </c>
@@ -6418,9 +6418,9 @@
       <c r="N23" s="169"/>
     </row>
     <row r="24" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="414"/>
-      <c r="C24" s="389"/>
-      <c r="D24" s="408"/>
+      <c r="B24" s="402"/>
+      <c r="C24" s="405"/>
+      <c r="D24" s="396"/>
       <c r="E24" s="22">
         <v>16</v>
       </c>
@@ -6437,9 +6437,9 @@
       <c r="N24" s="169"/>
     </row>
     <row r="25" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="414"/>
-      <c r="C25" s="389"/>
-      <c r="D25" s="408"/>
+      <c r="B25" s="402"/>
+      <c r="C25" s="405"/>
+      <c r="D25" s="396"/>
       <c r="E25" s="22">
         <v>17</v>
       </c>
@@ -6453,9 +6453,9 @@
       <c r="N25" s="185"/>
     </row>
     <row r="26" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="414"/>
-      <c r="C26" s="389"/>
-      <c r="D26" s="408"/>
+      <c r="B26" s="402"/>
+      <c r="C26" s="405"/>
+      <c r="D26" s="396"/>
       <c r="E26" s="22">
         <v>18</v>
       </c>
@@ -6469,9 +6469,9 @@
       <c r="N26" s="185"/>
     </row>
     <row r="27" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="414"/>
-      <c r="C27" s="389"/>
-      <c r="D27" s="408"/>
+      <c r="B27" s="402"/>
+      <c r="C27" s="405"/>
+      <c r="D27" s="396"/>
       <c r="E27" s="22">
         <v>19</v>
       </c>
@@ -6485,9 +6485,9 @@
       <c r="N27" s="185"/>
     </row>
     <row r="28" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="414"/>
-      <c r="C28" s="389"/>
-      <c r="D28" s="408"/>
+      <c r="B28" s="402"/>
+      <c r="C28" s="405"/>
+      <c r="D28" s="396"/>
       <c r="E28" s="22">
         <v>20</v>
       </c>
@@ -6501,9 +6501,9 @@
       <c r="N28" s="185"/>
     </row>
     <row r="29" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="414"/>
-      <c r="C29" s="389"/>
-      <c r="D29" s="408"/>
+      <c r="B29" s="402"/>
+      <c r="C29" s="405"/>
+      <c r="D29" s="396"/>
       <c r="E29" s="22">
         <v>21</v>
       </c>
@@ -6517,9 +6517,9 @@
       <c r="N29" s="185"/>
     </row>
     <row r="30" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="414"/>
-      <c r="C30" s="389"/>
-      <c r="D30" s="408"/>
+      <c r="B30" s="402"/>
+      <c r="C30" s="405"/>
+      <c r="D30" s="396"/>
       <c r="E30" s="22">
         <v>22</v>
       </c>
@@ -6533,9 +6533,9 @@
       <c r="N30" s="185"/>
     </row>
     <row r="31" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="414"/>
-      <c r="C31" s="389"/>
-      <c r="D31" s="408"/>
+      <c r="B31" s="402"/>
+      <c r="C31" s="405"/>
+      <c r="D31" s="396"/>
       <c r="E31" s="22">
         <v>23</v>
       </c>
@@ -6549,9 +6549,9 @@
       <c r="N31" s="185"/>
     </row>
     <row r="32" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="414"/>
-      <c r="C32" s="389"/>
-      <c r="D32" s="408"/>
+      <c r="B32" s="402"/>
+      <c r="C32" s="405"/>
+      <c r="D32" s="396"/>
       <c r="E32" s="22">
         <v>24</v>
       </c>
@@ -6565,9 +6565,9 @@
       <c r="N32" s="185"/>
     </row>
     <row r="33" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="414"/>
-      <c r="C33" s="389"/>
-      <c r="D33" s="408"/>
+      <c r="B33" s="402"/>
+      <c r="C33" s="405"/>
+      <c r="D33" s="396"/>
       <c r="E33" s="22">
         <v>25</v>
       </c>
@@ -6581,9 +6581,9 @@
       <c r="N33" s="185"/>
     </row>
     <row r="34" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="414"/>
-      <c r="C34" s="389"/>
-      <c r="D34" s="408"/>
+      <c r="B34" s="402"/>
+      <c r="C34" s="405"/>
+      <c r="D34" s="396"/>
       <c r="E34" s="22">
         <v>26</v>
       </c>
@@ -6597,9 +6597,9 @@
       <c r="N34" s="185"/>
     </row>
     <row r="35" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="414"/>
-      <c r="C35" s="389"/>
-      <c r="D35" s="408"/>
+      <c r="B35" s="402"/>
+      <c r="C35" s="405"/>
+      <c r="D35" s="396"/>
       <c r="E35" s="22">
         <v>27</v>
       </c>
@@ -6613,9 +6613,9 @@
       <c r="N35" s="185"/>
     </row>
     <row r="36" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="414"/>
-      <c r="C36" s="389"/>
-      <c r="D36" s="408"/>
+      <c r="B36" s="402"/>
+      <c r="C36" s="405"/>
+      <c r="D36" s="396"/>
       <c r="E36" s="22">
         <v>28</v>
       </c>
@@ -6629,9 +6629,9 @@
       <c r="N36" s="185"/>
     </row>
     <row r="37" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="414"/>
-      <c r="C37" s="389"/>
-      <c r="D37" s="408"/>
+      <c r="B37" s="402"/>
+      <c r="C37" s="405"/>
+      <c r="D37" s="396"/>
       <c r="E37" s="22">
         <v>29</v>
       </c>
@@ -6645,9 +6645,9 @@
       <c r="N37" s="185"/>
     </row>
     <row r="38" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="414"/>
-      <c r="C38" s="389"/>
-      <c r="D38" s="408"/>
+      <c r="B38" s="402"/>
+      <c r="C38" s="405"/>
+      <c r="D38" s="396"/>
       <c r="E38" s="22">
         <v>30</v>
       </c>
@@ -6661,9 +6661,9 @@
       <c r="N38" s="185"/>
     </row>
     <row r="39" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="414"/>
-      <c r="C39" s="389"/>
-      <c r="D39" s="408"/>
+      <c r="B39" s="402"/>
+      <c r="C39" s="405"/>
+      <c r="D39" s="396"/>
       <c r="E39" s="22">
         <v>31</v>
       </c>
@@ -6677,9 +6677,9 @@
       <c r="N39" s="185"/>
     </row>
     <row r="40" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="414"/>
-      <c r="C40" s="389"/>
-      <c r="D40" s="408"/>
+      <c r="B40" s="402"/>
+      <c r="C40" s="405"/>
+      <c r="D40" s="396"/>
       <c r="E40" s="22">
         <v>32</v>
       </c>
@@ -6693,9 +6693,9 @@
       <c r="N40" s="185"/>
     </row>
     <row r="41" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="414"/>
-      <c r="C41" s="389"/>
-      <c r="D41" s="408"/>
+      <c r="B41" s="402"/>
+      <c r="C41" s="405"/>
+      <c r="D41" s="396"/>
       <c r="E41" s="22">
         <v>33</v>
       </c>
@@ -6709,9 +6709,9 @@
       <c r="N41" s="185"/>
     </row>
     <row r="42" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="414"/>
-      <c r="C42" s="389"/>
-      <c r="D42" s="408"/>
+      <c r="B42" s="402"/>
+      <c r="C42" s="405"/>
+      <c r="D42" s="396"/>
       <c r="E42" s="22">
         <v>34</v>
       </c>
@@ -6725,9 +6725,9 @@
       <c r="N42" s="185"/>
     </row>
     <row r="43" spans="2:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="414"/>
-      <c r="C43" s="389"/>
-      <c r="D43" s="409"/>
+      <c r="B43" s="402"/>
+      <c r="C43" s="405"/>
+      <c r="D43" s="397"/>
       <c r="E43" s="114"/>
       <c r="F43" s="192"/>
       <c r="G43" s="116"/>
@@ -6740,8 +6740,8 @@
       <c r="N43" s="195"/>
     </row>
     <row r="44" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="414"/>
-      <c r="C44" s="389"/>
+      <c r="B44" s="402"/>
+      <c r="C44" s="405"/>
       <c r="D44" s="186" t="s">
         <v>30</v>
       </c>
@@ -6763,8 +6763,8 @@
       <c r="N44" s="191"/>
     </row>
     <row r="45" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="414"/>
-      <c r="C45" s="389"/>
+      <c r="B45" s="402"/>
+      <c r="C45" s="405"/>
       <c r="D45" s="148" t="s">
         <v>31</v>
       </c>
@@ -6783,8 +6783,8 @@
       <c r="N45" s="169"/>
     </row>
     <row r="46" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="414"/>
-      <c r="C46" s="389"/>
+      <c r="B46" s="402"/>
+      <c r="C46" s="405"/>
       <c r="D46" s="148" t="s">
         <v>33</v>
       </c>
@@ -6806,8 +6806,8 @@
       <c r="N46" s="169"/>
     </row>
     <row r="47" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="414"/>
-      <c r="C47" s="389"/>
+      <c r="B47" s="402"/>
+      <c r="C47" s="405"/>
       <c r="D47" s="154" t="s">
         <v>32</v>
       </c>
@@ -6830,8 +6830,8 @@
       <c r="N47" s="169"/>
     </row>
     <row r="48" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="414"/>
-      <c r="C48" s="389"/>
+      <c r="B48" s="402"/>
+      <c r="C48" s="405"/>
       <c r="D48" s="149" t="s">
         <v>55</v>
       </c>
@@ -6853,9 +6853,9 @@
       <c r="N48" s="169"/>
     </row>
     <row r="49" spans="2:16" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="414"/>
-      <c r="C49" s="389"/>
-      <c r="D49" s="416" t="s">
+      <c r="B49" s="402"/>
+      <c r="C49" s="405"/>
+      <c r="D49" s="407" t="s">
         <v>50</v>
       </c>
       <c r="E49" s="22"/>
@@ -6876,9 +6876,9 @@
       <c r="N49" s="169"/>
     </row>
     <row r="50" spans="2:16" ht="19.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="414"/>
-      <c r="C50" s="390"/>
-      <c r="D50" s="417"/>
+      <c r="B50" s="402"/>
+      <c r="C50" s="406"/>
+      <c r="D50" s="408"/>
       <c r="E50" s="19"/>
       <c r="F50" s="14"/>
       <c r="G50" s="113"/>
@@ -6889,8 +6889,8 @@
       <c r="N50" s="170"/>
     </row>
     <row r="51" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="414"/>
-      <c r="C51" s="418" t="s">
+      <c r="B51" s="402"/>
+      <c r="C51" s="409" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="150" t="s">
@@ -6911,8 +6911,8 @@
       <c r="N51" s="171"/>
     </row>
     <row r="52" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="414"/>
-      <c r="C52" s="414"/>
+      <c r="B52" s="402"/>
+      <c r="C52" s="402"/>
       <c r="D52" s="148" t="s">
         <v>19</v>
       </c>
@@ -6934,8 +6934,8 @@
       <c r="N52" s="169"/>
     </row>
     <row r="53" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="414"/>
-      <c r="C53" s="414"/>
+      <c r="B53" s="402"/>
+      <c r="C53" s="402"/>
       <c r="D53" s="148" t="s">
         <v>20</v>
       </c>
@@ -6957,8 +6957,8 @@
       <c r="N53" s="169"/>
     </row>
     <row r="54" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="414"/>
-      <c r="C54" s="414"/>
+      <c r="B54" s="402"/>
+      <c r="C54" s="402"/>
       <c r="D54" s="148" t="s">
         <v>21</v>
       </c>
@@ -6977,8 +6977,8 @@
       <c r="N54" s="169"/>
     </row>
     <row r="55" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="414"/>
-      <c r="C55" s="414"/>
+      <c r="B55" s="402"/>
+      <c r="C55" s="402"/>
       <c r="D55" s="148" t="s">
         <v>22</v>
       </c>
@@ -7000,8 +7000,8 @@
       <c r="N55" s="169"/>
     </row>
     <row r="56" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="414"/>
-      <c r="C56" s="414"/>
+      <c r="B56" s="402"/>
+      <c r="C56" s="402"/>
       <c r="D56" s="148" t="s">
         <v>23</v>
       </c>
@@ -7023,8 +7023,8 @@
       <c r="N56" s="169"/>
     </row>
     <row r="57" spans="2:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="414"/>
-      <c r="C57" s="414"/>
+      <c r="B57" s="402"/>
+      <c r="C57" s="402"/>
       <c r="D57" s="155" t="s">
         <v>24</v>
       </c>
@@ -7050,8 +7050,8 @@
       <c r="N57" s="172"/>
     </row>
     <row r="58" spans="2:16" ht="19.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="414"/>
-      <c r="C58" s="414"/>
+      <c r="B58" s="402"/>
+      <c r="C58" s="402"/>
       <c r="D58" s="156" t="s">
         <v>25</v>
       </c>
@@ -7065,13 +7065,13 @@
       <c r="N58" s="173"/>
     </row>
     <row r="59" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="387" t="s">
+      <c r="B59" s="403" t="s">
         <v>113</v>
       </c>
-      <c r="C59" s="391" t="s">
+      <c r="C59" s="420" t="s">
         <v>114</v>
       </c>
-      <c r="D59" s="395" t="s">
+      <c r="D59" s="424" t="s">
         <v>115</v>
       </c>
       <c r="E59" s="21"/>
@@ -7091,9 +7091,9 @@
       <c r="N59" s="171"/>
     </row>
     <row r="60" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="388"/>
-      <c r="C60" s="392"/>
-      <c r="D60" s="396"/>
+      <c r="B60" s="419"/>
+      <c r="C60" s="421"/>
+      <c r="D60" s="425"/>
       <c r="E60" s="22"/>
       <c r="G60" s="104"/>
       <c r="H60" s="110"/>
@@ -7110,9 +7110,9 @@
       <c r="N60" s="169"/>
     </row>
     <row r="61" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="389"/>
-      <c r="C61" s="393"/>
-      <c r="D61" s="396"/>
+      <c r="B61" s="405"/>
+      <c r="C61" s="422"/>
+      <c r="D61" s="425"/>
       <c r="E61" s="22"/>
       <c r="G61" s="104"/>
       <c r="H61" s="110"/>
@@ -7130,8 +7130,8 @@
       <c r="N61" s="169"/>
     </row>
     <row r="62" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="389"/>
-      <c r="C62" s="393"/>
+      <c r="B62" s="405"/>
+      <c r="C62" s="422"/>
       <c r="D62" s="152" t="s">
         <v>116</v>
       </c>
@@ -7158,9 +7158,9 @@
       </c>
     </row>
     <row r="63" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="389"/>
-      <c r="C63" s="393"/>
-      <c r="D63" s="397" t="s">
+      <c r="B63" s="405"/>
+      <c r="C63" s="422"/>
+      <c r="D63" s="426" t="s">
         <v>117</v>
       </c>
       <c r="E63" s="22"/>
@@ -7191,9 +7191,9 @@
       </c>
     </row>
     <row r="64" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="389"/>
-      <c r="C64" s="393"/>
-      <c r="D64" s="397"/>
+      <c r="B64" s="405"/>
+      <c r="C64" s="422"/>
+      <c r="D64" s="426"/>
       <c r="E64" s="22"/>
       <c r="G64" s="104"/>
       <c r="H64" s="110" t="s">
@@ -7220,9 +7220,9 @@
       </c>
     </row>
     <row r="65" spans="2:15" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="389"/>
-      <c r="C65" s="393"/>
-      <c r="D65" s="397"/>
+      <c r="B65" s="405"/>
+      <c r="C65" s="422"/>
+      <c r="D65" s="426"/>
       <c r="E65" s="22"/>
       <c r="G65" s="104"/>
       <c r="H65" s="110"/>
@@ -7235,9 +7235,9 @@
       <c r="N65" s="169"/>
     </row>
     <row r="66" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="389"/>
-      <c r="C66" s="393"/>
-      <c r="D66" s="397" t="s">
+      <c r="B66" s="405"/>
+      <c r="C66" s="422"/>
+      <c r="D66" s="426" t="s">
         <v>118</v>
       </c>
       <c r="E66" s="22"/>
@@ -7259,9 +7259,9 @@
       </c>
     </row>
     <row r="67" spans="2:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="390"/>
-      <c r="C67" s="394"/>
-      <c r="D67" s="398"/>
+      <c r="B67" s="406"/>
+      <c r="C67" s="423"/>
+      <c r="D67" s="427"/>
       <c r="E67" s="114"/>
       <c r="F67" s="115"/>
       <c r="G67" s="116"/>
@@ -7958,6 +7958,11 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="20">
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="D66:D67"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="M3:M4"/>
@@ -7973,11 +7978,6 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="D66:D67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -8019,66 +8019,66 @@
       </c>
     </row>
     <row r="2" spans="2:55" s="223" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="459" t="s">
+      <c r="B2" s="431" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="460"/>
-      <c r="D2" s="460"/>
-      <c r="E2" s="460"/>
-      <c r="F2" s="460"/>
-      <c r="G2" s="460"/>
-      <c r="H2" s="460"/>
-      <c r="I2" s="460"/>
-      <c r="J2" s="460"/>
-      <c r="K2" s="460"/>
-      <c r="L2" s="460"/>
-      <c r="M2" s="460"/>
-      <c r="N2" s="460"/>
-      <c r="O2" s="460"/>
-      <c r="P2" s="461"/>
+      <c r="C2" s="432"/>
+      <c r="D2" s="432"/>
+      <c r="E2" s="432"/>
+      <c r="F2" s="432"/>
+      <c r="G2" s="432"/>
+      <c r="H2" s="432"/>
+      <c r="I2" s="432"/>
+      <c r="J2" s="432"/>
+      <c r="K2" s="432"/>
+      <c r="L2" s="432"/>
+      <c r="M2" s="432"/>
+      <c r="N2" s="432"/>
+      <c r="O2" s="432"/>
+      <c r="P2" s="433"/>
       <c r="Q2" s="222"/>
       <c r="BC2" s="27" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="3" spans="2:55" s="239" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="462" t="s">
+      <c r="B3" s="434" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="464" t="s">
+      <c r="C3" s="436" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="464" t="s">
+      <c r="D3" s="436" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="467" t="s">
+      <c r="E3" s="439" t="s">
         <v>197</v>
       </c>
-      <c r="F3" s="464" t="s">
+      <c r="F3" s="436" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="464" t="s">
+      <c r="G3" s="436" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="464" t="s">
+      <c r="H3" s="436" t="s">
         <v>154</v>
       </c>
-      <c r="I3" s="464" t="s">
+      <c r="I3" s="436" t="s">
         <v>131</v>
       </c>
-      <c r="J3" s="469"/>
-      <c r="K3" s="469"/>
+      <c r="J3" s="441"/>
+      <c r="K3" s="441"/>
       <c r="L3" s="301"/>
-      <c r="M3" s="464" t="s">
+      <c r="M3" s="436" t="s">
         <v>190</v>
       </c>
-      <c r="N3" s="464" t="s">
+      <c r="N3" s="436" t="s">
         <v>189</v>
       </c>
-      <c r="O3" s="464" t="s">
+      <c r="O3" s="436" t="s">
         <v>141</v>
       </c>
-      <c r="P3" s="471" t="s">
+      <c r="P3" s="443" t="s">
         <v>1</v>
       </c>
       <c r="Q3" s="238"/>
@@ -8087,13 +8087,13 @@
       </c>
     </row>
     <row r="4" spans="2:55" s="239" customFormat="1" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="463"/>
-      <c r="C4" s="465"/>
-      <c r="D4" s="466"/>
-      <c r="E4" s="468"/>
-      <c r="F4" s="465"/>
-      <c r="G4" s="465"/>
-      <c r="H4" s="465"/>
+      <c r="B4" s="435"/>
+      <c r="C4" s="437"/>
+      <c r="D4" s="438"/>
+      <c r="E4" s="440"/>
+      <c r="F4" s="437"/>
+      <c r="G4" s="437"/>
+      <c r="H4" s="437"/>
       <c r="I4" s="302" t="s">
         <v>126</v>
       </c>
@@ -8106,10 +8106,10 @@
       <c r="L4" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="M4" s="465"/>
-      <c r="N4" s="465"/>
-      <c r="O4" s="470"/>
-      <c r="P4" s="472"/>
+      <c r="M4" s="437"/>
+      <c r="N4" s="437"/>
+      <c r="O4" s="442"/>
+      <c r="P4" s="444"/>
       <c r="Q4" s="240"/>
       <c r="BC4" s="239" t="s">
         <v>178</v>
@@ -8212,14 +8212,14 @@
       <c r="Q8" s="221"/>
     </row>
     <row r="9" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="438" t="s">
+      <c r="B9" s="455" t="s">
         <v>208</v>
       </c>
-      <c r="C9" s="441" t="s">
+      <c r="C9" s="458" t="s">
         <v>183</v>
       </c>
       <c r="D9" s="255"/>
-      <c r="E9" s="443" t="s">
+      <c r="E9" s="460" t="s">
         <v>198</v>
       </c>
       <c r="F9" s="256">
@@ -8250,10 +8250,10 @@
       <c r="Q9" s="221"/>
     </row>
     <row r="10" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="439"/>
-      <c r="C10" s="442"/>
+      <c r="B10" s="456"/>
+      <c r="C10" s="459"/>
       <c r="D10" s="249"/>
-      <c r="E10" s="444"/>
+      <c r="E10" s="461"/>
       <c r="F10" s="22">
         <v>2</v>
       </c>
@@ -8275,10 +8275,10 @@
       <c r="S10" s="219"/>
     </row>
     <row r="11" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="439"/>
-      <c r="C11" s="442"/>
+      <c r="B11" s="456"/>
+      <c r="C11" s="459"/>
       <c r="D11" s="249"/>
-      <c r="E11" s="444"/>
+      <c r="E11" s="461"/>
       <c r="F11" s="22">
         <v>3</v>
       </c>
@@ -8300,10 +8300,10 @@
       <c r="S11" s="219"/>
     </row>
     <row r="12" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="439"/>
-      <c r="C12" s="442"/>
+      <c r="B12" s="456"/>
+      <c r="C12" s="459"/>
       <c r="D12" s="249"/>
-      <c r="E12" s="444"/>
+      <c r="E12" s="461"/>
       <c r="F12" s="22">
         <v>4</v>
       </c>
@@ -8325,10 +8325,10 @@
       <c r="S12" s="219"/>
     </row>
     <row r="13" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="439"/>
-      <c r="C13" s="442"/>
+      <c r="B13" s="456"/>
+      <c r="C13" s="459"/>
       <c r="D13" s="249"/>
-      <c r="E13" s="445" t="s">
+      <c r="E13" s="462" t="s">
         <v>199</v>
       </c>
       <c r="F13" s="35">
@@ -8351,10 +8351,10 @@
       <c r="Q13" s="221"/>
     </row>
     <row r="14" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="439"/>
-      <c r="C14" s="442"/>
+      <c r="B14" s="456"/>
+      <c r="C14" s="459"/>
       <c r="D14" s="249"/>
-      <c r="E14" s="445"/>
+      <c r="E14" s="462"/>
       <c r="F14" s="35">
         <v>6</v>
       </c>
@@ -8375,10 +8375,10 @@
       <c r="Q14" s="221"/>
     </row>
     <row r="15" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="439"/>
-      <c r="C15" s="442"/>
+      <c r="B15" s="456"/>
+      <c r="C15" s="459"/>
       <c r="D15" s="249"/>
-      <c r="E15" s="445"/>
+      <c r="E15" s="462"/>
       <c r="F15" s="35">
         <v>7</v>
       </c>
@@ -8400,10 +8400,10 @@
       <c r="S15" s="219"/>
     </row>
     <row r="16" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="439"/>
-      <c r="C16" s="442"/>
+      <c r="B16" s="456"/>
+      <c r="C16" s="459"/>
       <c r="D16" s="249"/>
-      <c r="E16" s="445"/>
+      <c r="E16" s="462"/>
       <c r="F16" s="35">
         <v>8</v>
       </c>
@@ -8425,10 +8425,10 @@
       <c r="S16" s="219"/>
     </row>
     <row r="17" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="439"/>
-      <c r="C17" s="442"/>
+      <c r="B17" s="456"/>
+      <c r="C17" s="459"/>
       <c r="D17" s="249"/>
-      <c r="E17" s="445"/>
+      <c r="E17" s="462"/>
       <c r="F17" s="18">
         <v>9</v>
       </c>
@@ -8450,10 +8450,10 @@
       <c r="S17" s="219"/>
     </row>
     <row r="18" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="439"/>
-      <c r="C18" s="442"/>
+      <c r="B18" s="456"/>
+      <c r="C18" s="459"/>
       <c r="D18" s="249"/>
-      <c r="E18" s="445"/>
+      <c r="E18" s="462"/>
       <c r="F18" s="18">
         <v>10</v>
       </c>
@@ -8475,10 +8475,10 @@
       <c r="S18" s="219"/>
     </row>
     <row r="19" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="439"/>
-      <c r="C19" s="442"/>
+      <c r="B19" s="456"/>
+      <c r="C19" s="459"/>
       <c r="D19" s="249"/>
-      <c r="E19" s="445"/>
+      <c r="E19" s="462"/>
       <c r="F19" s="18">
         <v>11</v>
       </c>
@@ -8499,10 +8499,10 @@
       <c r="Q19" s="221"/>
     </row>
     <row r="20" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="439"/>
-      <c r="C20" s="442"/>
+      <c r="B20" s="456"/>
+      <c r="C20" s="459"/>
       <c r="D20" s="249"/>
-      <c r="E20" s="445"/>
+      <c r="E20" s="462"/>
       <c r="F20" s="18">
         <v>12</v>
       </c>
@@ -8523,10 +8523,10 @@
       <c r="Q20" s="221"/>
     </row>
     <row r="21" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="439"/>
-      <c r="C21" s="442"/>
+      <c r="B21" s="456"/>
+      <c r="C21" s="459"/>
       <c r="D21" s="249"/>
-      <c r="E21" s="444" t="s">
+      <c r="E21" s="461" t="s">
         <v>198</v>
       </c>
       <c r="F21" s="22">
@@ -8550,10 +8550,10 @@
       <c r="S21" s="219"/>
     </row>
     <row r="22" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="439"/>
-      <c r="C22" s="442"/>
+      <c r="B22" s="456"/>
+      <c r="C22" s="459"/>
       <c r="D22" s="249"/>
-      <c r="E22" s="444"/>
+      <c r="E22" s="461"/>
       <c r="F22" s="22">
         <v>14</v>
       </c>
@@ -8575,10 +8575,10 @@
       <c r="S22" s="219"/>
     </row>
     <row r="23" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="439"/>
-      <c r="C23" s="442"/>
+      <c r="B23" s="456"/>
+      <c r="C23" s="459"/>
       <c r="D23" s="249"/>
-      <c r="E23" s="444"/>
+      <c r="E23" s="461"/>
       <c r="F23" s="22">
         <v>15</v>
       </c>
@@ -8600,10 +8600,10 @@
       <c r="S23" s="219"/>
     </row>
     <row r="24" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="439"/>
-      <c r="C24" s="431"/>
+      <c r="B24" s="456"/>
+      <c r="C24" s="448"/>
       <c r="D24" s="249"/>
-      <c r="E24" s="444"/>
+      <c r="E24" s="461"/>
       <c r="F24" s="22">
         <v>16</v>
       </c>
@@ -8625,10 +8625,10 @@
       <c r="S24" s="219"/>
     </row>
     <row r="25" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="439"/>
-      <c r="C25" s="431"/>
+      <c r="B25" s="456"/>
+      <c r="C25" s="448"/>
       <c r="D25" s="249"/>
-      <c r="E25" s="446" t="s">
+      <c r="E25" s="463" t="s">
         <v>201</v>
       </c>
       <c r="F25" s="18">
@@ -8652,10 +8652,10 @@
       <c r="S25" s="219"/>
     </row>
     <row r="26" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="439"/>
-      <c r="C26" s="431"/>
+      <c r="B26" s="456"/>
+      <c r="C26" s="448"/>
       <c r="D26" s="249"/>
-      <c r="E26" s="446"/>
+      <c r="E26" s="463"/>
       <c r="F26" s="18">
         <v>18</v>
       </c>
@@ -8677,10 +8677,10 @@
       <c r="S26" s="219"/>
     </row>
     <row r="27" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="439"/>
-      <c r="C27" s="431"/>
+      <c r="B27" s="456"/>
+      <c r="C27" s="448"/>
       <c r="D27" s="249"/>
-      <c r="E27" s="446"/>
+      <c r="E27" s="463"/>
       <c r="F27" s="18">
         <v>19</v>
       </c>
@@ -8702,10 +8702,10 @@
       <c r="S27" s="219"/>
     </row>
     <row r="28" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="439"/>
-      <c r="C28" s="431"/>
+      <c r="B28" s="456"/>
+      <c r="C28" s="448"/>
       <c r="D28" s="249"/>
-      <c r="E28" s="446"/>
+      <c r="E28" s="463"/>
       <c r="F28" s="18">
         <v>20</v>
       </c>
@@ -8727,10 +8727,10 @@
       <c r="S28" s="219"/>
     </row>
     <row r="29" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="439"/>
-      <c r="C29" s="431"/>
+      <c r="B29" s="456"/>
+      <c r="C29" s="448"/>
       <c r="D29" s="249"/>
-      <c r="E29" s="444" t="s">
+      <c r="E29" s="461" t="s">
         <v>204</v>
       </c>
       <c r="F29" s="22">
@@ -8754,10 +8754,10 @@
       <c r="S29" s="219"/>
     </row>
     <row r="30" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="439"/>
-      <c r="C30" s="431"/>
+      <c r="B30" s="456"/>
+      <c r="C30" s="448"/>
       <c r="D30" s="249"/>
-      <c r="E30" s="444"/>
+      <c r="E30" s="461"/>
       <c r="F30" s="22">
         <v>22</v>
       </c>
@@ -8779,10 +8779,10 @@
       <c r="S30" s="219"/>
     </row>
     <row r="31" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="439"/>
-      <c r="C31" s="431"/>
+      <c r="B31" s="456"/>
+      <c r="C31" s="448"/>
       <c r="D31" s="249"/>
-      <c r="E31" s="444"/>
+      <c r="E31" s="461"/>
       <c r="F31" s="22">
         <v>23</v>
       </c>
@@ -8804,10 +8804,10 @@
       <c r="S31" s="219"/>
     </row>
     <row r="32" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="439"/>
-      <c r="C32" s="431"/>
+      <c r="B32" s="456"/>
+      <c r="C32" s="448"/>
       <c r="D32" s="249"/>
-      <c r="E32" s="444"/>
+      <c r="E32" s="461"/>
       <c r="F32" s="22">
         <v>24</v>
       </c>
@@ -8829,10 +8829,10 @@
       <c r="S32" s="219"/>
     </row>
     <row r="33" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="439"/>
-      <c r="C33" s="431"/>
+      <c r="B33" s="456"/>
+      <c r="C33" s="448"/>
       <c r="D33" s="249"/>
-      <c r="E33" s="445"/>
+      <c r="E33" s="462"/>
       <c r="F33" s="18"/>
       <c r="G33" s="236"/>
       <c r="H33" s="296"/>
@@ -8848,10 +8848,10 @@
       <c r="S33" s="219"/>
     </row>
     <row r="34" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="439"/>
-      <c r="C34" s="431"/>
+      <c r="B34" s="456"/>
+      <c r="C34" s="448"/>
       <c r="D34" s="249"/>
-      <c r="E34" s="445"/>
+      <c r="E34" s="462"/>
       <c r="F34" s="18"/>
       <c r="G34" s="236"/>
       <c r="H34" s="296"/>
@@ -8867,10 +8867,10 @@
       <c r="S34" s="219"/>
     </row>
     <row r="35" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="439"/>
-      <c r="C35" s="431"/>
+      <c r="B35" s="456"/>
+      <c r="C35" s="448"/>
       <c r="D35" s="249"/>
-      <c r="E35" s="445"/>
+      <c r="E35" s="462"/>
       <c r="F35" s="18"/>
       <c r="G35" s="236"/>
       <c r="H35" s="296"/>
@@ -8886,10 +8886,10 @@
       <c r="S35" s="219"/>
     </row>
     <row r="36" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="439"/>
-      <c r="C36" s="431"/>
+      <c r="B36" s="456"/>
+      <c r="C36" s="448"/>
       <c r="D36" s="249"/>
-      <c r="E36" s="447"/>
+      <c r="E36" s="428"/>
       <c r="F36" s="18"/>
       <c r="G36" s="236"/>
       <c r="H36" s="296"/>
@@ -8905,7 +8905,7 @@
       <c r="S36" s="219"/>
     </row>
     <row r="37" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="439"/>
+      <c r="B37" s="456"/>
       <c r="C37" s="259"/>
       <c r="D37" s="260"/>
       <c r="E37" s="260"/>
@@ -8924,12 +8924,12 @@
       <c r="S37" s="219"/>
     </row>
     <row r="38" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="439"/>
-      <c r="C38" s="448" t="s">
+      <c r="B38" s="456"/>
+      <c r="C38" s="464" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="255"/>
-      <c r="E38" s="451" t="s">
+      <c r="E38" s="467" t="s">
         <v>200</v>
       </c>
       <c r="F38" s="256">
@@ -8953,10 +8953,10 @@
       <c r="S38" s="219"/>
     </row>
     <row r="39" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="439"/>
-      <c r="C39" s="449"/>
+      <c r="B39" s="456"/>
+      <c r="C39" s="465"/>
       <c r="D39" s="249"/>
-      <c r="E39" s="452"/>
+      <c r="E39" s="468"/>
       <c r="F39" s="22">
         <v>2</v>
       </c>
@@ -8978,10 +8978,10 @@
       <c r="S39" s="219"/>
     </row>
     <row r="40" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="439"/>
-      <c r="C40" s="449"/>
+      <c r="B40" s="456"/>
+      <c r="C40" s="465"/>
       <c r="D40" s="249"/>
-      <c r="E40" s="452"/>
+      <c r="E40" s="468"/>
       <c r="F40" s="22">
         <v>3</v>
       </c>
@@ -9003,10 +9003,10 @@
       <c r="S40" s="219"/>
     </row>
     <row r="41" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="439"/>
-      <c r="C41" s="449"/>
+      <c r="B41" s="456"/>
+      <c r="C41" s="465"/>
       <c r="D41" s="249"/>
-      <c r="E41" s="453"/>
+      <c r="E41" s="469"/>
       <c r="F41" s="22">
         <v>4</v>
       </c>
@@ -9028,8 +9028,8 @@
       <c r="S41" s="219"/>
     </row>
     <row r="42" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="439"/>
-      <c r="C42" s="449"/>
+      <c r="B42" s="456"/>
+      <c r="C42" s="465"/>
       <c r="D42" s="249"/>
       <c r="E42" s="249"/>
       <c r="F42" s="35"/>
@@ -9047,8 +9047,8 @@
       <c r="S42" s="219"/>
     </row>
     <row r="43" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="439"/>
-      <c r="C43" s="449"/>
+      <c r="B43" s="456"/>
+      <c r="C43" s="465"/>
       <c r="D43" s="249"/>
       <c r="E43" s="249"/>
       <c r="F43" s="35"/>
@@ -9065,8 +9065,8 @@
       <c r="Q43" s="221"/>
     </row>
     <row r="44" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="439"/>
-      <c r="C44" s="449"/>
+      <c r="B44" s="456"/>
+      <c r="C44" s="465"/>
       <c r="D44" s="249"/>
       <c r="E44" s="249"/>
       <c r="F44" s="35"/>
@@ -9083,8 +9083,8 @@
       <c r="Q44" s="221"/>
     </row>
     <row r="45" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="439"/>
-      <c r="C45" s="449"/>
+      <c r="B45" s="456"/>
+      <c r="C45" s="465"/>
       <c r="D45" s="249"/>
       <c r="E45" s="249"/>
       <c r="F45" s="35"/>
@@ -9101,8 +9101,8 @@
       <c r="Q45" s="221"/>
     </row>
     <row r="46" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="439"/>
-      <c r="C46" s="450"/>
+      <c r="B46" s="456"/>
+      <c r="C46" s="466"/>
       <c r="D46" s="260"/>
       <c r="E46" s="260"/>
       <c r="F46" s="261"/>
@@ -9119,12 +9119,12 @@
       <c r="Q46" s="221"/>
     </row>
     <row r="47" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="439"/>
-      <c r="C47" s="448" t="s">
+      <c r="B47" s="456"/>
+      <c r="C47" s="464" t="s">
         <v>184</v>
       </c>
       <c r="D47" s="255"/>
-      <c r="E47" s="455" t="s">
+      <c r="E47" s="471" t="s">
         <v>203</v>
       </c>
       <c r="F47" s="256">
@@ -9147,10 +9147,10 @@
       <c r="Q47" s="221"/>
     </row>
     <row r="48" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="439"/>
-      <c r="C48" s="449"/>
+      <c r="B48" s="456"/>
+      <c r="C48" s="465"/>
       <c r="D48" s="249"/>
-      <c r="E48" s="456"/>
+      <c r="E48" s="472"/>
       <c r="F48" s="22">
         <v>2</v>
       </c>
@@ -9171,10 +9171,10 @@
       <c r="Q48" s="221"/>
     </row>
     <row r="49" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="439"/>
-      <c r="C49" s="449"/>
+      <c r="B49" s="456"/>
+      <c r="C49" s="465"/>
       <c r="D49" s="249"/>
-      <c r="E49" s="456"/>
+      <c r="E49" s="472"/>
       <c r="F49" s="22">
         <v>3</v>
       </c>
@@ -9195,10 +9195,10 @@
       <c r="Q49" s="221"/>
     </row>
     <row r="50" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="439"/>
-      <c r="C50" s="449"/>
+      <c r="B50" s="456"/>
+      <c r="C50" s="465"/>
       <c r="D50" s="249"/>
-      <c r="E50" s="456"/>
+      <c r="E50" s="472"/>
       <c r="F50" s="22">
         <v>4</v>
       </c>
@@ -9219,10 +9219,10 @@
       <c r="Q50" s="221"/>
     </row>
     <row r="51" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="439"/>
-      <c r="C51" s="449"/>
+      <c r="B51" s="456"/>
+      <c r="C51" s="465"/>
       <c r="D51" s="249"/>
-      <c r="E51" s="456"/>
+      <c r="E51" s="472"/>
       <c r="F51" s="35">
         <v>5</v>
       </c>
@@ -9243,10 +9243,10 @@
       <c r="Q51" s="221"/>
     </row>
     <row r="52" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="439"/>
-      <c r="C52" s="449"/>
+      <c r="B52" s="456"/>
+      <c r="C52" s="465"/>
       <c r="D52" s="249"/>
-      <c r="E52" s="456"/>
+      <c r="E52" s="472"/>
       <c r="F52" s="35">
         <v>6</v>
       </c>
@@ -9267,10 +9267,10 @@
       <c r="Q52" s="221"/>
     </row>
     <row r="53" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="439"/>
-      <c r="C53" s="449"/>
+      <c r="B53" s="456"/>
+      <c r="C53" s="465"/>
       <c r="D53" s="249"/>
-      <c r="E53" s="456"/>
+      <c r="E53" s="472"/>
       <c r="F53" s="35">
         <v>7</v>
       </c>
@@ -9291,10 +9291,10 @@
       <c r="Q53" s="221"/>
     </row>
     <row r="54" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="439"/>
-      <c r="C54" s="449"/>
+      <c r="B54" s="456"/>
+      <c r="C54" s="465"/>
       <c r="D54" s="249"/>
-      <c r="E54" s="456"/>
+      <c r="E54" s="472"/>
       <c r="F54" s="35">
         <v>8</v>
       </c>
@@ -9315,10 +9315,10 @@
       <c r="Q54" s="221"/>
     </row>
     <row r="55" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="439"/>
-      <c r="C55" s="449"/>
+      <c r="B55" s="456"/>
+      <c r="C55" s="465"/>
       <c r="D55" s="249"/>
-      <c r="E55" s="456"/>
+      <c r="E55" s="472"/>
       <c r="F55" s="22">
         <v>9</v>
       </c>
@@ -9339,10 +9339,10 @@
       <c r="Q55" s="221"/>
     </row>
     <row r="56" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="439"/>
-      <c r="C56" s="449"/>
+      <c r="B56" s="456"/>
+      <c r="C56" s="465"/>
       <c r="D56" s="249"/>
-      <c r="E56" s="456"/>
+      <c r="E56" s="472"/>
       <c r="F56" s="22">
         <v>10</v>
       </c>
@@ -9363,10 +9363,10 @@
       <c r="Q56" s="221"/>
     </row>
     <row r="57" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="439"/>
-      <c r="C57" s="449"/>
+      <c r="B57" s="456"/>
+      <c r="C57" s="465"/>
       <c r="D57" s="249"/>
-      <c r="E57" s="456"/>
+      <c r="E57" s="472"/>
       <c r="F57" s="22">
         <v>11</v>
       </c>
@@ -9387,10 +9387,10 @@
       <c r="Q57" s="221"/>
     </row>
     <row r="58" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="439"/>
-      <c r="C58" s="449"/>
+      <c r="B58" s="456"/>
+      <c r="C58" s="465"/>
       <c r="D58" s="249"/>
-      <c r="E58" s="456"/>
+      <c r="E58" s="472"/>
       <c r="F58" s="22">
         <v>12</v>
       </c>
@@ -9411,10 +9411,10 @@
       <c r="Q58" s="221"/>
     </row>
     <row r="59" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="439"/>
-      <c r="C59" s="449"/>
+      <c r="B59" s="456"/>
+      <c r="C59" s="465"/>
       <c r="D59" s="249"/>
-      <c r="E59" s="447" t="s">
+      <c r="E59" s="428" t="s">
         <v>205</v>
       </c>
       <c r="F59" s="35">
@@ -9437,10 +9437,10 @@
       <c r="Q59" s="221"/>
     </row>
     <row r="60" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="439"/>
-      <c r="C60" s="449"/>
+      <c r="B60" s="456"/>
+      <c r="C60" s="465"/>
       <c r="D60" s="249"/>
-      <c r="E60" s="457"/>
+      <c r="E60" s="429"/>
       <c r="F60" s="35">
         <v>14</v>
       </c>
@@ -9461,10 +9461,10 @@
       <c r="Q60" s="221"/>
     </row>
     <row r="61" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="439"/>
-      <c r="C61" s="449"/>
+      <c r="B61" s="456"/>
+      <c r="C61" s="465"/>
       <c r="D61" s="249"/>
-      <c r="E61" s="457"/>
+      <c r="E61" s="429"/>
       <c r="F61" s="35">
         <v>15</v>
       </c>
@@ -9485,10 +9485,10 @@
       <c r="Q61" s="221"/>
     </row>
     <row r="62" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="439"/>
-      <c r="C62" s="449"/>
+      <c r="B62" s="456"/>
+      <c r="C62" s="465"/>
       <c r="D62" s="249"/>
-      <c r="E62" s="457"/>
+      <c r="E62" s="429"/>
       <c r="F62" s="35">
         <v>16</v>
       </c>
@@ -9509,10 +9509,10 @@
       <c r="Q62" s="221"/>
     </row>
     <row r="63" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="439"/>
-      <c r="C63" s="449"/>
+      <c r="B63" s="456"/>
+      <c r="C63" s="465"/>
       <c r="D63" s="249"/>
-      <c r="E63" s="457"/>
+      <c r="E63" s="429"/>
       <c r="F63" s="22">
         <v>17</v>
       </c>
@@ -9533,10 +9533,10 @@
       <c r="Q63" s="221"/>
     </row>
     <row r="64" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="439"/>
-      <c r="C64" s="449"/>
+      <c r="B64" s="456"/>
+      <c r="C64" s="465"/>
       <c r="D64" s="249"/>
-      <c r="E64" s="457"/>
+      <c r="E64" s="429"/>
       <c r="F64" s="22">
         <v>18</v>
       </c>
@@ -9557,10 +9557,10 @@
       <c r="Q64" s="221"/>
     </row>
     <row r="65" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="439"/>
-      <c r="C65" s="449"/>
+      <c r="B65" s="456"/>
+      <c r="C65" s="465"/>
       <c r="D65" s="249"/>
-      <c r="E65" s="457"/>
+      <c r="E65" s="429"/>
       <c r="F65" s="22">
         <v>19</v>
       </c>
@@ -9581,10 +9581,10 @@
       <c r="Q65" s="221"/>
     </row>
     <row r="66" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="439"/>
-      <c r="C66" s="449"/>
+      <c r="B66" s="456"/>
+      <c r="C66" s="465"/>
       <c r="D66" s="249"/>
-      <c r="E66" s="457"/>
+      <c r="E66" s="429"/>
       <c r="F66" s="22">
         <v>20</v>
       </c>
@@ -9605,10 +9605,10 @@
       <c r="Q66" s="221"/>
     </row>
     <row r="67" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="439"/>
-      <c r="C67" s="449"/>
+      <c r="B67" s="456"/>
+      <c r="C67" s="465"/>
       <c r="D67" s="249"/>
-      <c r="E67" s="457"/>
+      <c r="E67" s="429"/>
       <c r="F67" s="35">
         <v>21</v>
       </c>
@@ -9629,10 +9629,10 @@
       <c r="Q67" s="221"/>
     </row>
     <row r="68" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="439"/>
-      <c r="C68" s="449"/>
+      <c r="B68" s="456"/>
+      <c r="C68" s="465"/>
       <c r="D68" s="249"/>
-      <c r="E68" s="457"/>
+      <c r="E68" s="429"/>
       <c r="F68" s="35">
         <v>22</v>
       </c>
@@ -9653,10 +9653,10 @@
       <c r="Q68" s="221"/>
     </row>
     <row r="69" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="439"/>
-      <c r="C69" s="449"/>
+      <c r="B69" s="456"/>
+      <c r="C69" s="465"/>
       <c r="D69" s="249"/>
-      <c r="E69" s="457"/>
+      <c r="E69" s="429"/>
       <c r="F69" s="35">
         <v>23</v>
       </c>
@@ -9677,10 +9677,10 @@
       <c r="Q69" s="221"/>
     </row>
     <row r="70" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="439"/>
-      <c r="C70" s="449"/>
+      <c r="B70" s="456"/>
+      <c r="C70" s="465"/>
       <c r="D70" s="249"/>
-      <c r="E70" s="457"/>
+      <c r="E70" s="429"/>
       <c r="F70" s="35">
         <v>24</v>
       </c>
@@ -9701,10 +9701,10 @@
       <c r="Q70" s="221"/>
     </row>
     <row r="71" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="439"/>
-      <c r="C71" s="449"/>
+      <c r="B71" s="456"/>
+      <c r="C71" s="465"/>
       <c r="D71" s="249"/>
-      <c r="E71" s="457"/>
+      <c r="E71" s="429"/>
       <c r="F71" s="22">
         <v>25</v>
       </c>
@@ -9725,10 +9725,10 @@
       <c r="Q71" s="221"/>
     </row>
     <row r="72" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="439"/>
-      <c r="C72" s="449"/>
+      <c r="B72" s="456"/>
+      <c r="C72" s="465"/>
       <c r="D72" s="249"/>
-      <c r="E72" s="457"/>
+      <c r="E72" s="429"/>
       <c r="F72" s="22">
         <v>26</v>
       </c>
@@ -9749,10 +9749,10 @@
       <c r="Q72" s="221"/>
     </row>
     <row r="73" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="439"/>
-      <c r="C73" s="449"/>
+      <c r="B73" s="456"/>
+      <c r="C73" s="465"/>
       <c r="D73" s="249"/>
-      <c r="E73" s="457"/>
+      <c r="E73" s="429"/>
       <c r="F73" s="22">
         <v>27</v>
       </c>
@@ -9773,10 +9773,10 @@
       <c r="Q73" s="221"/>
     </row>
     <row r="74" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="439"/>
-      <c r="C74" s="454"/>
+      <c r="B74" s="456"/>
+      <c r="C74" s="470"/>
       <c r="D74" s="249"/>
-      <c r="E74" s="457"/>
+      <c r="E74" s="429"/>
       <c r="F74" s="22">
         <v>28</v>
       </c>
@@ -9797,10 +9797,10 @@
       <c r="Q74" s="221"/>
     </row>
     <row r="75" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="439"/>
+      <c r="B75" s="456"/>
       <c r="C75" s="274"/>
       <c r="D75" s="249"/>
-      <c r="E75" s="457"/>
+      <c r="E75" s="429"/>
       <c r="F75" s="281">
         <v>29</v>
       </c>
@@ -9821,10 +9821,10 @@
       <c r="Q75" s="275"/>
     </row>
     <row r="76" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="439"/>
+      <c r="B76" s="456"/>
       <c r="C76" s="274"/>
       <c r="D76" s="249"/>
-      <c r="E76" s="457"/>
+      <c r="E76" s="429"/>
       <c r="F76" s="281">
         <v>30</v>
       </c>
@@ -9845,10 +9845,10 @@
       <c r="Q76" s="275"/>
     </row>
     <row r="77" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="439"/>
+      <c r="B77" s="456"/>
       <c r="C77" s="274"/>
       <c r="D77" s="249"/>
-      <c r="E77" s="457"/>
+      <c r="E77" s="429"/>
       <c r="F77" s="281">
         <v>31</v>
       </c>
@@ -9869,10 +9869,10 @@
       <c r="Q77" s="275"/>
     </row>
     <row r="78" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="439"/>
+      <c r="B78" s="456"/>
       <c r="C78" s="274"/>
       <c r="D78" s="249"/>
-      <c r="E78" s="457"/>
+      <c r="E78" s="429"/>
       <c r="F78" s="281">
         <v>32</v>
       </c>
@@ -9893,10 +9893,10 @@
       <c r="Q78" s="275"/>
     </row>
     <row r="79" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="439"/>
+      <c r="B79" s="456"/>
       <c r="C79" s="274"/>
       <c r="D79" s="249"/>
-      <c r="E79" s="457"/>
+      <c r="E79" s="429"/>
       <c r="F79" s="178">
         <v>33</v>
       </c>
@@ -9917,10 +9917,10 @@
       <c r="Q79" s="275"/>
     </row>
     <row r="80" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="439"/>
+      <c r="B80" s="456"/>
       <c r="C80" s="274"/>
       <c r="D80" s="249"/>
-      <c r="E80" s="457"/>
+      <c r="E80" s="429"/>
       <c r="F80" s="178">
         <v>34</v>
       </c>
@@ -9941,10 +9941,10 @@
       <c r="Q80" s="275"/>
     </row>
     <row r="81" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="439"/>
+      <c r="B81" s="456"/>
       <c r="C81" s="274"/>
       <c r="D81" s="249"/>
-      <c r="E81" s="457"/>
+      <c r="E81" s="429"/>
       <c r="F81" s="178">
         <v>35</v>
       </c>
@@ -9965,10 +9965,10 @@
       <c r="Q81" s="275"/>
     </row>
     <row r="82" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="439"/>
+      <c r="B82" s="456"/>
       <c r="C82" s="274"/>
       <c r="D82" s="249"/>
-      <c r="E82" s="457"/>
+      <c r="E82" s="429"/>
       <c r="F82" s="178">
         <v>36</v>
       </c>
@@ -9989,10 +9989,10 @@
       <c r="Q82" s="275"/>
     </row>
     <row r="83" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="439"/>
+      <c r="B83" s="456"/>
       <c r="C83" s="272"/>
       <c r="D83" s="249"/>
-      <c r="E83" s="457"/>
+      <c r="E83" s="429"/>
       <c r="F83" s="228">
         <v>37</v>
       </c>
@@ -10013,10 +10013,10 @@
       <c r="Q83" s="221"/>
     </row>
     <row r="84" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="439"/>
+      <c r="B84" s="456"/>
       <c r="C84" s="272"/>
       <c r="D84" s="249"/>
-      <c r="E84" s="457"/>
+      <c r="E84" s="429"/>
       <c r="F84" s="228">
         <v>38</v>
       </c>
@@ -10037,10 +10037,10 @@
       <c r="Q84" s="221"/>
     </row>
     <row r="85" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="439"/>
+      <c r="B85" s="456"/>
       <c r="C85" s="272"/>
       <c r="D85" s="249"/>
-      <c r="E85" s="457"/>
+      <c r="E85" s="429"/>
       <c r="F85" s="228">
         <v>39</v>
       </c>
@@ -10061,10 +10061,10 @@
       <c r="Q85" s="221"/>
     </row>
     <row r="86" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="439"/>
+      <c r="B86" s="456"/>
       <c r="C86" s="272"/>
       <c r="D86" s="249"/>
-      <c r="E86" s="458"/>
+      <c r="E86" s="430"/>
       <c r="F86" s="228">
         <v>40</v>
       </c>
@@ -10085,10 +10085,10 @@
       <c r="Q86" s="221"/>
     </row>
     <row r="87" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="439"/>
+      <c r="B87" s="456"/>
       <c r="C87" s="272"/>
       <c r="D87" s="249"/>
-      <c r="E87" s="457" t="s">
+      <c r="E87" s="429" t="s">
         <v>202</v>
       </c>
       <c r="F87" s="178">
@@ -10111,10 +10111,10 @@
       <c r="Q87" s="221"/>
     </row>
     <row r="88" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="439"/>
+      <c r="B88" s="456"/>
       <c r="C88" s="272"/>
       <c r="D88" s="249"/>
-      <c r="E88" s="457"/>
+      <c r="E88" s="429"/>
       <c r="F88" s="178">
         <v>42</v>
       </c>
@@ -10135,10 +10135,10 @@
       <c r="Q88" s="221"/>
     </row>
     <row r="89" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="439"/>
+      <c r="B89" s="456"/>
       <c r="C89" s="274"/>
       <c r="D89" s="249"/>
-      <c r="E89" s="457"/>
+      <c r="E89" s="429"/>
       <c r="F89" s="178">
         <v>43</v>
       </c>
@@ -10159,10 +10159,10 @@
       <c r="Q89" s="275"/>
     </row>
     <row r="90" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="439"/>
+      <c r="B90" s="456"/>
       <c r="C90" s="274"/>
       <c r="D90" s="249"/>
-      <c r="E90" s="457"/>
+      <c r="E90" s="429"/>
       <c r="F90" s="178">
         <v>44</v>
       </c>
@@ -10183,7 +10183,7 @@
       <c r="Q90" s="275"/>
     </row>
     <row r="91" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="439"/>
+      <c r="B91" s="456"/>
       <c r="C91" s="274"/>
       <c r="D91" s="249"/>
       <c r="E91" s="249"/>
@@ -10201,7 +10201,7 @@
       <c r="Q91" s="221"/>
     </row>
     <row r="92" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="440"/>
+      <c r="B92" s="457"/>
       <c r="C92" s="285"/>
       <c r="D92" s="260"/>
       <c r="E92" s="260"/>
@@ -10219,14 +10219,14 @@
       <c r="Q92" s="221"/>
     </row>
     <row r="93" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="428" t="s">
+      <c r="B93" s="445" t="s">
         <v>207</v>
       </c>
-      <c r="C93" s="430" t="s">
+      <c r="C93" s="447" t="s">
         <v>209</v>
       </c>
       <c r="D93" s="249"/>
-      <c r="E93" s="432" t="s">
+      <c r="E93" s="449" t="s">
         <v>210</v>
       </c>
       <c r="F93" s="178">
@@ -10247,10 +10247,10 @@
       <c r="Q93" s="275"/>
     </row>
     <row r="94" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="429"/>
-      <c r="C94" s="431"/>
+      <c r="B94" s="446"/>
+      <c r="C94" s="448"/>
       <c r="D94" s="249"/>
-      <c r="E94" s="433"/>
+      <c r="E94" s="450"/>
       <c r="F94" s="178">
         <v>2</v>
       </c>
@@ -10267,10 +10267,10 @@
       <c r="Q94" s="275"/>
     </row>
     <row r="95" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="429"/>
-      <c r="C95" s="431"/>
+      <c r="B95" s="446"/>
+      <c r="C95" s="448"/>
       <c r="D95" s="249"/>
-      <c r="E95" s="433"/>
+      <c r="E95" s="450"/>
       <c r="F95" s="178">
         <v>3</v>
       </c>
@@ -10287,10 +10287,10 @@
       <c r="Q95" s="275"/>
     </row>
     <row r="96" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="429"/>
-      <c r="C96" s="431"/>
+      <c r="B96" s="446"/>
+      <c r="C96" s="448"/>
       <c r="D96" s="249"/>
-      <c r="E96" s="434"/>
+      <c r="E96" s="451"/>
       <c r="F96" s="178">
         <v>4</v>
       </c>
@@ -10307,8 +10307,8 @@
       <c r="Q96" s="275"/>
     </row>
     <row r="97" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="429"/>
-      <c r="C97" s="431"/>
+      <c r="B97" s="446"/>
+      <c r="C97" s="448"/>
       <c r="D97" s="249"/>
       <c r="E97" s="295"/>
       <c r="F97" s="286"/>
@@ -10325,8 +10325,8 @@
       <c r="Q97" s="275"/>
     </row>
     <row r="98" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="429"/>
-      <c r="C98" s="431"/>
+      <c r="B98" s="446"/>
+      <c r="C98" s="448"/>
       <c r="D98" s="249"/>
       <c r="E98" s="295"/>
       <c r="F98" s="286"/>
@@ -10343,8 +10343,8 @@
       <c r="Q98" s="275"/>
     </row>
     <row r="99" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="429"/>
-      <c r="C99" s="431"/>
+      <c r="B99" s="446"/>
+      <c r="C99" s="448"/>
       <c r="D99" s="249"/>
       <c r="E99" s="295"/>
       <c r="F99" s="286"/>
@@ -10361,7 +10361,7 @@
       <c r="Q99" s="275"/>
     </row>
     <row r="100" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="429"/>
+      <c r="B100" s="446"/>
       <c r="C100" s="274"/>
       <c r="D100" s="249"/>
       <c r="E100" s="295"/>
@@ -10379,7 +10379,7 @@
       <c r="Q100" s="275"/>
     </row>
     <row r="101" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="429"/>
+      <c r="B101" s="446"/>
       <c r="C101" s="274"/>
       <c r="D101" s="249"/>
       <c r="E101" s="295"/>
@@ -10397,7 +10397,7 @@
       <c r="Q101" s="275"/>
     </row>
     <row r="102" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="429"/>
+      <c r="B102" s="446"/>
       <c r="C102" s="274"/>
       <c r="D102" s="249"/>
       <c r="E102" s="249"/>
@@ -10415,7 +10415,7 @@
       <c r="Q102" s="275"/>
     </row>
     <row r="103" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="429"/>
+      <c r="B103" s="446"/>
       <c r="C103" s="274"/>
       <c r="D103" s="249"/>
       <c r="E103" s="249"/>
@@ -10433,7 +10433,7 @@
       <c r="Q103" s="275"/>
     </row>
     <row r="104" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="429"/>
+      <c r="B104" s="446"/>
       <c r="C104" s="274"/>
       <c r="D104" s="249"/>
       <c r="E104" s="249"/>
@@ -10452,7 +10452,7 @@
     </row>
     <row r="105" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="304"/>
-      <c r="C105" s="435" t="s">
+      <c r="C105" s="452" t="s">
         <v>276</v>
       </c>
       <c r="D105" s="255"/>
@@ -10472,7 +10472,7 @@
     </row>
     <row r="106" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="298"/>
-      <c r="C106" s="436"/>
+      <c r="C106" s="453"/>
       <c r="D106" s="249"/>
       <c r="E106" s="249"/>
       <c r="F106" s="286"/>
@@ -10490,7 +10490,7 @@
     </row>
     <row r="107" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="298"/>
-      <c r="C107" s="436"/>
+      <c r="C107" s="453"/>
       <c r="D107" s="249"/>
       <c r="E107" s="249"/>
       <c r="F107" s="286"/>
@@ -10508,7 +10508,7 @@
     </row>
     <row r="108" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="298"/>
-      <c r="C108" s="436"/>
+      <c r="C108" s="453"/>
       <c r="D108" s="249"/>
       <c r="E108" s="249"/>
       <c r="F108" s="286"/>
@@ -10526,7 +10526,7 @@
     </row>
     <row r="109" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="298"/>
-      <c r="C109" s="436"/>
+      <c r="C109" s="453"/>
       <c r="D109" s="249"/>
       <c r="E109" s="249"/>
       <c r="F109" s="286"/>
@@ -10544,7 +10544,7 @@
     </row>
     <row r="110" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="298"/>
-      <c r="C110" s="436"/>
+      <c r="C110" s="453"/>
       <c r="D110" s="249"/>
       <c r="E110" s="249"/>
       <c r="F110" s="286"/>
@@ -10562,7 +10562,7 @@
     </row>
     <row r="111" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="298"/>
-      <c r="C111" s="436"/>
+      <c r="C111" s="453"/>
       <c r="D111" s="249"/>
       <c r="E111" s="249"/>
       <c r="F111" s="286"/>
@@ -10580,7 +10580,7 @@
     </row>
     <row r="112" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="298"/>
-      <c r="C112" s="436"/>
+      <c r="C112" s="453"/>
       <c r="D112" s="249"/>
       <c r="E112" s="249"/>
       <c r="F112" s="286"/>
@@ -10598,7 +10598,7 @@
     </row>
     <row r="113" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="299"/>
-      <c r="C113" s="436"/>
+      <c r="C113" s="453"/>
       <c r="D113" s="249"/>
       <c r="E113" s="249"/>
       <c r="F113" s="286"/>
@@ -10616,7 +10616,7 @@
     </row>
     <row r="114" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="299"/>
-      <c r="C114" s="436"/>
+      <c r="C114" s="453"/>
       <c r="D114" s="249"/>
       <c r="E114" s="249"/>
       <c r="F114" s="286"/>
@@ -10634,7 +10634,7 @@
     </row>
     <row r="115" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="299"/>
-      <c r="C115" s="436"/>
+      <c r="C115" s="453"/>
       <c r="D115" s="249"/>
       <c r="E115" s="249"/>
       <c r="F115" s="286"/>
@@ -10652,7 +10652,7 @@
     </row>
     <row r="116" spans="2:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="300"/>
-      <c r="C116" s="437"/>
+      <c r="C116" s="454"/>
       <c r="D116" s="250"/>
       <c r="E116" s="250"/>
       <c r="F116" s="98"/>
@@ -11037,21 +11037,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E59:E86"/>
-    <mergeCell ref="E87:E90"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
     <mergeCell ref="B93:B104"/>
     <mergeCell ref="C93:C99"/>
     <mergeCell ref="E93:E96"/>
@@ -11068,6 +11053,21 @@
     <mergeCell ref="E38:E41"/>
     <mergeCell ref="C47:C74"/>
     <mergeCell ref="E47:E58"/>
+    <mergeCell ref="E59:E86"/>
+    <mergeCell ref="E87:E90"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O9:O63">
@@ -12028,13 +12028,13 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:I92"/>
+  <dimension ref="B1:I100"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12416,10 +12416,10 @@
       <c r="B33" s="377"/>
       <c r="C33" s="358"/>
       <c r="D33" s="483" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E33" s="315" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F33" s="356"/>
       <c r="G33" s="351"/>
@@ -12430,7 +12430,7 @@
       <c r="C34" s="358"/>
       <c r="D34" s="484"/>
       <c r="E34" s="315" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F34" s="315"/>
       <c r="G34" s="351"/>
@@ -12441,7 +12441,7 @@
       <c r="C35" s="358"/>
       <c r="D35" s="484"/>
       <c r="E35" s="315" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F35" s="315"/>
       <c r="G35" s="351"/>
@@ -12450,9 +12450,9 @@
     <row r="36" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="377"/>
       <c r="C36" s="358"/>
-      <c r="D36" s="485"/>
+      <c r="D36" s="484"/>
       <c r="E36" s="315" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F36" s="356"/>
       <c r="G36" s="351"/>
@@ -12461,12 +12461,8 @@
     <row r="37" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="377"/>
       <c r="C37" s="358"/>
-      <c r="D37" s="483" t="s">
-        <v>382</v>
-      </c>
-      <c r="E37" s="315" t="s">
-        <v>379</v>
-      </c>
+      <c r="D37" s="484"/>
+      <c r="E37" s="315"/>
       <c r="F37" s="356"/>
       <c r="G37" s="351"/>
       <c r="H37" s="368"/>
@@ -12475,10 +12471,8 @@
       <c r="B38" s="377"/>
       <c r="C38" s="358"/>
       <c r="D38" s="484"/>
-      <c r="E38" s="315" t="s">
-        <v>380</v>
-      </c>
-      <c r="F38" s="315"/>
+      <c r="E38" s="315"/>
+      <c r="F38" s="356"/>
       <c r="G38" s="351"/>
       <c r="H38" s="368"/>
     </row>
@@ -12486,10 +12480,8 @@
       <c r="B39" s="377"/>
       <c r="C39" s="358"/>
       <c r="D39" s="484"/>
-      <c r="E39" s="315" t="s">
-        <v>381</v>
-      </c>
-      <c r="F39" s="315"/>
+      <c r="E39" s="315"/>
+      <c r="F39" s="356"/>
       <c r="G39" s="351"/>
       <c r="H39" s="368"/>
     </row>
@@ -12497,9 +12489,7 @@
       <c r="B40" s="377"/>
       <c r="C40" s="358"/>
       <c r="D40" s="485"/>
-      <c r="E40" s="315" t="s">
-        <v>383</v>
-      </c>
+      <c r="E40" s="315"/>
       <c r="F40" s="356"/>
       <c r="G40" s="351"/>
       <c r="H40" s="368"/>
@@ -12507,19 +12497,23 @@
     <row r="41" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="377"/>
       <c r="C41" s="358"/>
-      <c r="D41" s="360" t="s">
-        <v>341</v>
-      </c>
-      <c r="E41" s="315"/>
-      <c r="F41" s="315"/>
+      <c r="D41" s="483" t="s">
+        <v>376</v>
+      </c>
+      <c r="E41" s="315" t="s">
+        <v>381</v>
+      </c>
+      <c r="F41" s="356"/>
       <c r="G41" s="351"/>
       <c r="H41" s="368"/>
     </row>
     <row r="42" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="377"/>
       <c r="C42" s="358"/>
-      <c r="D42" s="295"/>
-      <c r="E42" s="315"/>
+      <c r="D42" s="484"/>
+      <c r="E42" s="315" t="s">
+        <v>382</v>
+      </c>
       <c r="F42" s="315"/>
       <c r="G42" s="351"/>
       <c r="H42" s="368"/>
@@ -12527,8 +12521,10 @@
     <row r="43" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="377"/>
       <c r="C43" s="358"/>
-      <c r="D43" s="295"/>
-      <c r="E43" s="315"/>
+      <c r="D43" s="484"/>
+      <c r="E43" s="315" t="s">
+        <v>383</v>
+      </c>
       <c r="F43" s="315"/>
       <c r="G43" s="351"/>
       <c r="H43" s="368"/>
@@ -12536,55 +12532,55 @@
     <row r="44" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="377"/>
       <c r="C44" s="358"/>
-      <c r="D44" s="295"/>
-      <c r="E44" s="315"/>
-      <c r="F44" s="315"/>
+      <c r="D44" s="484"/>
+      <c r="E44" s="315" t="s">
+        <v>384</v>
+      </c>
+      <c r="F44" s="356"/>
       <c r="G44" s="351"/>
       <c r="H44" s="368"/>
     </row>
     <row r="45" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="377"/>
       <c r="C45" s="358"/>
-      <c r="D45" s="360" t="s">
-        <v>339</v>
-      </c>
+      <c r="D45" s="484"/>
       <c r="E45" s="315"/>
-      <c r="F45" s="315"/>
+      <c r="F45" s="356"/>
       <c r="G45" s="351"/>
       <c r="H45" s="368"/>
     </row>
     <row r="46" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="377"/>
       <c r="C46" s="358"/>
-      <c r="D46" s="295"/>
+      <c r="D46" s="484"/>
       <c r="E46" s="315"/>
-      <c r="F46" s="315"/>
+      <c r="F46" s="356"/>
       <c r="G46" s="351"/>
       <c r="H46" s="368"/>
     </row>
     <row r="47" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="377"/>
       <c r="C47" s="358"/>
-      <c r="D47" s="295"/>
+      <c r="D47" s="484"/>
       <c r="E47" s="315"/>
-      <c r="F47" s="315"/>
+      <c r="F47" s="356"/>
       <c r="G47" s="351"/>
       <c r="H47" s="368"/>
     </row>
-    <row r="48" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="377"/>
-      <c r="C48" s="355"/>
-      <c r="D48" s="295"/>
-      <c r="E48" s="355"/>
-      <c r="F48" s="355"/>
-      <c r="G48" s="359"/>
-      <c r="H48" s="369"/>
+      <c r="C48" s="358"/>
+      <c r="D48" s="485"/>
+      <c r="E48" s="315"/>
+      <c r="F48" s="356"/>
+      <c r="G48" s="351"/>
+      <c r="H48" s="368"/>
     </row>
     <row r="49" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="377"/>
       <c r="C49" s="358"/>
-      <c r="D49" s="385" t="s">
-        <v>338</v>
+      <c r="D49" s="360" t="s">
+        <v>341</v>
       </c>
       <c r="E49" s="315"/>
       <c r="F49" s="315"/>
@@ -12594,7 +12590,7 @@
     <row r="50" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="377"/>
       <c r="C50" s="358"/>
-      <c r="D50" s="386"/>
+      <c r="D50" s="295"/>
       <c r="E50" s="315"/>
       <c r="F50" s="315"/>
       <c r="G50" s="351"/>
@@ -12603,26 +12599,26 @@
     <row r="51" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="377"/>
       <c r="C51" s="358"/>
-      <c r="D51" s="386"/>
+      <c r="D51" s="295"/>
       <c r="E51" s="315"/>
       <c r="F51" s="315"/>
       <c r="G51" s="351"/>
       <c r="H51" s="368"/>
     </row>
-    <row r="52" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="377"/>
-      <c r="C52" s="355"/>
-      <c r="D52" s="386"/>
-      <c r="E52" s="355"/>
-      <c r="F52" s="355"/>
-      <c r="G52" s="359"/>
-      <c r="H52" s="369"/>
+      <c r="C52" s="358"/>
+      <c r="D52" s="295"/>
+      <c r="E52" s="315"/>
+      <c r="F52" s="315"/>
+      <c r="G52" s="351"/>
+      <c r="H52" s="368"/>
     </row>
     <row r="53" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="377"/>
       <c r="C53" s="358"/>
-      <c r="D53" s="385" t="s">
-        <v>345</v>
+      <c r="D53" s="360" t="s">
+        <v>339</v>
       </c>
       <c r="E53" s="315"/>
       <c r="F53" s="315"/>
@@ -12632,7 +12628,7 @@
     <row r="54" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="377"/>
       <c r="C54" s="358"/>
-      <c r="D54" s="386"/>
+      <c r="D54" s="295"/>
       <c r="E54" s="315"/>
       <c r="F54" s="315"/>
       <c r="G54" s="351"/>
@@ -12641,7 +12637,7 @@
     <row r="55" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="377"/>
       <c r="C55" s="358"/>
-      <c r="D55" s="386"/>
+      <c r="D55" s="295"/>
       <c r="E55" s="315"/>
       <c r="F55" s="315"/>
       <c r="G55" s="351"/>
@@ -12650,7 +12646,7 @@
     <row r="56" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="377"/>
       <c r="C56" s="355"/>
-      <c r="D56" s="386"/>
+      <c r="D56" s="295"/>
       <c r="E56" s="355"/>
       <c r="F56" s="355"/>
       <c r="G56" s="359"/>
@@ -12660,21 +12656,21 @@
       <c r="B57" s="377"/>
       <c r="C57" s="358"/>
       <c r="D57" s="385" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E57" s="315"/>
       <c r="F57" s="315"/>
       <c r="G57" s="351"/>
       <c r="H57" s="368"/>
     </row>
-    <row r="58" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="377"/>
-      <c r="C58" s="355"/>
+      <c r="C58" s="358"/>
       <c r="D58" s="386"/>
-      <c r="E58" s="355"/>
-      <c r="F58" s="355"/>
-      <c r="G58" s="359"/>
-      <c r="H58" s="369"/>
+      <c r="E58" s="315"/>
+      <c r="F58" s="315"/>
+      <c r="G58" s="351"/>
+      <c r="H58" s="368"/>
     </row>
     <row r="59" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="377"/>
@@ -12685,28 +12681,30 @@
       <c r="G59" s="351"/>
       <c r="H59" s="368"/>
     </row>
-    <row r="60" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="377"/>
-      <c r="C60" s="358"/>
+      <c r="C60" s="355"/>
       <c r="D60" s="386"/>
-      <c r="E60" s="315"/>
-      <c r="F60" s="315"/>
-      <c r="G60" s="351"/>
-      <c r="H60" s="368"/>
-    </row>
-    <row r="61" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E60" s="355"/>
+      <c r="F60" s="355"/>
+      <c r="G60" s="359"/>
+      <c r="H60" s="369"/>
+    </row>
+    <row r="61" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="377"/>
-      <c r="C61" s="355"/>
-      <c r="D61" s="355"/>
-      <c r="E61" s="355"/>
-      <c r="F61" s="355"/>
-      <c r="G61" s="359"/>
-      <c r="H61" s="369"/>
+      <c r="C61" s="358"/>
+      <c r="D61" s="385" t="s">
+        <v>345</v>
+      </c>
+      <c r="E61" s="315"/>
+      <c r="F61" s="315"/>
+      <c r="G61" s="351"/>
+      <c r="H61" s="368"/>
     </row>
     <row r="62" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="377"/>
       <c r="C62" s="358"/>
-      <c r="D62" s="358"/>
+      <c r="D62" s="386"/>
       <c r="E62" s="315"/>
       <c r="F62" s="315"/>
       <c r="G62" s="351"/>
@@ -12715,7 +12713,7 @@
     <row r="63" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="377"/>
       <c r="C63" s="358"/>
-      <c r="D63" s="358"/>
+      <c r="D63" s="386"/>
       <c r="E63" s="315"/>
       <c r="F63" s="315"/>
       <c r="G63" s="351"/>
@@ -12724,7 +12722,7 @@
     <row r="64" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="377"/>
       <c r="C64" s="355"/>
-      <c r="D64" s="355"/>
+      <c r="D64" s="386"/>
       <c r="E64" s="355"/>
       <c r="F64" s="355"/>
       <c r="G64" s="359"/>
@@ -12733,56 +12731,58 @@
     <row r="65" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="377"/>
       <c r="C65" s="358"/>
-      <c r="D65" s="358"/>
+      <c r="D65" s="385" t="s">
+        <v>337</v>
+      </c>
       <c r="E65" s="315"/>
       <c r="F65" s="315"/>
       <c r="G65" s="351"/>
       <c r="H65" s="368"/>
     </row>
-    <row r="66" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="377"/>
-      <c r="C66" s="358"/>
-      <c r="D66" s="358"/>
-      <c r="E66" s="315"/>
-      <c r="F66" s="315"/>
-      <c r="G66" s="351"/>
-      <c r="H66" s="368"/>
-    </row>
-    <row r="67" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="355"/>
+      <c r="D66" s="386"/>
+      <c r="E66" s="355"/>
+      <c r="F66" s="355"/>
+      <c r="G66" s="359"/>
+      <c r="H66" s="369"/>
+    </row>
+    <row r="67" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="377"/>
-      <c r="C67" s="355"/>
-      <c r="D67" s="355"/>
-      <c r="E67" s="355"/>
-      <c r="F67" s="355"/>
-      <c r="G67" s="359"/>
-      <c r="H67" s="369"/>
+      <c r="C67" s="358"/>
+      <c r="D67" s="386"/>
+      <c r="E67" s="315"/>
+      <c r="F67" s="315"/>
+      <c r="G67" s="351"/>
+      <c r="H67" s="368"/>
     </row>
     <row r="68" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="377"/>
       <c r="C68" s="358"/>
-      <c r="D68" s="358"/>
+      <c r="D68" s="386"/>
       <c r="E68" s="315"/>
       <c r="F68" s="315"/>
       <c r="G68" s="351"/>
       <c r="H68" s="368"/>
     </row>
-    <row r="69" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="377"/>
-      <c r="C69" s="358"/>
-      <c r="D69" s="358"/>
-      <c r="E69" s="315"/>
-      <c r="F69" s="315"/>
-      <c r="G69" s="351"/>
-      <c r="H69" s="368"/>
-    </row>
-    <row r="70" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="355"/>
+      <c r="D69" s="355"/>
+      <c r="E69" s="355"/>
+      <c r="F69" s="355"/>
+      <c r="G69" s="359"/>
+      <c r="H69" s="369"/>
+    </row>
+    <row r="70" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="377"/>
-      <c r="C70" s="355"/>
-      <c r="D70" s="355"/>
-      <c r="E70" s="355"/>
-      <c r="F70" s="355"/>
-      <c r="G70" s="359"/>
-      <c r="H70" s="369"/>
+      <c r="C70" s="358"/>
+      <c r="D70" s="358"/>
+      <c r="E70" s="315"/>
+      <c r="F70" s="315"/>
+      <c r="G70" s="351"/>
+      <c r="H70" s="368"/>
     </row>
     <row r="71" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="377"/>
@@ -12793,23 +12793,23 @@
       <c r="G71" s="351"/>
       <c r="H71" s="368"/>
     </row>
-    <row r="72" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="377"/>
-      <c r="C72" s="358"/>
-      <c r="D72" s="358"/>
-      <c r="E72" s="315"/>
-      <c r="F72" s="315"/>
-      <c r="G72" s="351"/>
-      <c r="H72" s="368"/>
-    </row>
-    <row r="73" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="355"/>
+      <c r="D72" s="355"/>
+      <c r="E72" s="355"/>
+      <c r="F72" s="355"/>
+      <c r="G72" s="359"/>
+      <c r="H72" s="369"/>
+    </row>
+    <row r="73" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="377"/>
-      <c r="C73" s="355"/>
-      <c r="D73" s="355"/>
-      <c r="E73" s="355"/>
-      <c r="F73" s="355"/>
-      <c r="G73" s="359"/>
-      <c r="H73" s="369"/>
+      <c r="C73" s="358"/>
+      <c r="D73" s="358"/>
+      <c r="E73" s="315"/>
+      <c r="F73" s="315"/>
+      <c r="G73" s="351"/>
+      <c r="H73" s="368"/>
     </row>
     <row r="74" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="377"/>
@@ -12820,23 +12820,23 @@
       <c r="G74" s="351"/>
       <c r="H74" s="368"/>
     </row>
-    <row r="75" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="377"/>
-      <c r="C75" s="358"/>
-      <c r="D75" s="358"/>
-      <c r="E75" s="315"/>
-      <c r="F75" s="315"/>
-      <c r="G75" s="351"/>
-      <c r="H75" s="368"/>
-    </row>
-    <row r="76" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="355"/>
+      <c r="D75" s="355"/>
+      <c r="E75" s="355"/>
+      <c r="F75" s="355"/>
+      <c r="G75" s="359"/>
+      <c r="H75" s="369"/>
+    </row>
+    <row r="76" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="377"/>
-      <c r="C76" s="355"/>
-      <c r="D76" s="355"/>
-      <c r="E76" s="355"/>
-      <c r="F76" s="355"/>
-      <c r="G76" s="359"/>
-      <c r="H76" s="369"/>
+      <c r="C76" s="358"/>
+      <c r="D76" s="358"/>
+      <c r="E76" s="315"/>
+      <c r="F76" s="315"/>
+      <c r="G76" s="351"/>
+      <c r="H76" s="368"/>
     </row>
     <row r="77" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="377"/>
@@ -12847,23 +12847,23 @@
       <c r="G77" s="351"/>
       <c r="H77" s="368"/>
     </row>
-    <row r="78" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="377"/>
-      <c r="C78" s="358"/>
-      <c r="D78" s="358"/>
-      <c r="E78" s="315"/>
-      <c r="F78" s="315"/>
-      <c r="G78" s="351"/>
-      <c r="H78" s="368"/>
-    </row>
-    <row r="79" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="355"/>
+      <c r="D78" s="355"/>
+      <c r="E78" s="355"/>
+      <c r="F78" s="355"/>
+      <c r="G78" s="359"/>
+      <c r="H78" s="369"/>
+    </row>
+    <row r="79" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="377"/>
-      <c r="C79" s="355"/>
-      <c r="D79" s="355"/>
-      <c r="E79" s="355"/>
-      <c r="F79" s="355"/>
-      <c r="G79" s="359"/>
-      <c r="H79" s="369"/>
+      <c r="C79" s="358"/>
+      <c r="D79" s="358"/>
+      <c r="E79" s="315"/>
+      <c r="F79" s="315"/>
+      <c r="G79" s="351"/>
+      <c r="H79" s="368"/>
     </row>
     <row r="80" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="377"/>
@@ -12874,23 +12874,23 @@
       <c r="G80" s="351"/>
       <c r="H80" s="368"/>
     </row>
-    <row r="81" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="377"/>
-      <c r="C81" s="358"/>
-      <c r="D81" s="358"/>
-      <c r="E81" s="315"/>
-      <c r="F81" s="315"/>
-      <c r="G81" s="351"/>
-      <c r="H81" s="368"/>
-    </row>
-    <row r="82" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="355"/>
+      <c r="D81" s="355"/>
+      <c r="E81" s="355"/>
+      <c r="F81" s="355"/>
+      <c r="G81" s="359"/>
+      <c r="H81" s="369"/>
+    </row>
+    <row r="82" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="377"/>
-      <c r="C82" s="355"/>
-      <c r="D82" s="355"/>
-      <c r="E82" s="355"/>
-      <c r="F82" s="355"/>
-      <c r="G82" s="359"/>
-      <c r="H82" s="369"/>
+      <c r="C82" s="358"/>
+      <c r="D82" s="358"/>
+      <c r="E82" s="315"/>
+      <c r="F82" s="315"/>
+      <c r="G82" s="351"/>
+      <c r="H82" s="368"/>
     </row>
     <row r="83" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="377"/>
@@ -12901,77 +12901,149 @@
       <c r="G83" s="351"/>
       <c r="H83" s="368"/>
     </row>
-    <row r="84" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="377"/>
-      <c r="C84" s="360"/>
-      <c r="D84" s="358"/>
-      <c r="E84" s="315"/>
-      <c r="F84" s="315"/>
-      <c r="G84" s="351"/>
-      <c r="H84" s="368"/>
-    </row>
-    <row r="85" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C84" s="355"/>
+      <c r="D84" s="355"/>
+      <c r="E84" s="355"/>
+      <c r="F84" s="355"/>
+      <c r="G84" s="359"/>
+      <c r="H84" s="369"/>
+    </row>
+    <row r="85" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="377"/>
-      <c r="C85" s="331"/>
+      <c r="C85" s="358"/>
       <c r="D85" s="358"/>
       <c r="E85" s="315"/>
       <c r="F85" s="315"/>
       <c r="G85" s="351"/>
       <c r="H85" s="368"/>
     </row>
-    <row r="86" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="377"/>
-      <c r="C86" s="331"/>
+      <c r="C86" s="358"/>
       <c r="D86" s="358"/>
       <c r="E86" s="315"/>
       <c r="F86" s="315"/>
       <c r="G86" s="351"/>
       <c r="H86" s="368"/>
     </row>
-    <row r="87" spans="2:8" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="378"/>
-      <c r="C87" s="370"/>
-      <c r="D87" s="371"/>
-      <c r="E87" s="372"/>
-      <c r="F87" s="372"/>
-      <c r="G87" s="373"/>
-      <c r="H87" s="374"/>
-    </row>
-    <row r="88" spans="2:8" ht="11.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="331"/>
-      <c r="C88" s="331"/>
-      <c r="D88" s="331"/>
-      <c r="E88" s="362"/>
-      <c r="F88" s="363"/>
-      <c r="G88" s="364"/>
-      <c r="H88" s="331"/>
-    </row>
-    <row r="89" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="331"/>
-      <c r="C89" s="331"/>
-      <c r="D89" s="331"/>
-      <c r="E89" s="362"/>
-      <c r="F89" s="363"/>
-      <c r="G89" s="364"/>
-      <c r="H89" s="331"/>
+    <row r="87" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="377"/>
+      <c r="C87" s="355"/>
+      <c r="D87" s="355"/>
+      <c r="E87" s="355"/>
+      <c r="F87" s="355"/>
+      <c r="G87" s="359"/>
+      <c r="H87" s="369"/>
+    </row>
+    <row r="88" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="377"/>
+      <c r="C88" s="358"/>
+      <c r="D88" s="358"/>
+      <c r="E88" s="315"/>
+      <c r="F88" s="315"/>
+      <c r="G88" s="351"/>
+      <c r="H88" s="368"/>
+    </row>
+    <row r="89" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="377"/>
+      <c r="C89" s="358"/>
+      <c r="D89" s="358"/>
+      <c r="E89" s="315"/>
+      <c r="F89" s="315"/>
+      <c r="G89" s="351"/>
+      <c r="H89" s="368"/>
     </row>
     <row r="90" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="331"/>
-      <c r="C90" s="331"/>
-      <c r="D90" s="331"/>
-      <c r="E90" s="362"/>
-      <c r="F90" s="363"/>
-      <c r="G90" s="364"/>
-      <c r="H90" s="331"/>
-    </row>
-    <row r="91" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B90" s="377"/>
+      <c r="C90" s="355"/>
+      <c r="D90" s="355"/>
+      <c r="E90" s="355"/>
+      <c r="F90" s="355"/>
+      <c r="G90" s="359"/>
+      <c r="H90" s="369"/>
+    </row>
+    <row r="91" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="377"/>
+      <c r="C91" s="358"/>
+      <c r="D91" s="358"/>
+      <c r="E91" s="315"/>
+      <c r="F91" s="315"/>
+      <c r="G91" s="351"/>
+      <c r="H91" s="368"/>
+    </row>
+    <row r="92" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="377"/>
+      <c r="C92" s="360"/>
+      <c r="D92" s="358"/>
+      <c r="E92" s="315"/>
+      <c r="F92" s="315"/>
+      <c r="G92" s="351"/>
+      <c r="H92" s="368"/>
+    </row>
+    <row r="93" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="377"/>
+      <c r="C93" s="331"/>
+      <c r="D93" s="358"/>
+      <c r="E93" s="315"/>
+      <c r="F93" s="315"/>
+      <c r="G93" s="351"/>
+      <c r="H93" s="368"/>
+    </row>
+    <row r="94" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="377"/>
+      <c r="C94" s="331"/>
+      <c r="D94" s="358"/>
+      <c r="E94" s="315"/>
+      <c r="F94" s="315"/>
+      <c r="G94" s="351"/>
+      <c r="H94" s="368"/>
+    </row>
+    <row r="95" spans="2:8" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="378"/>
+      <c r="C95" s="370"/>
+      <c r="D95" s="371"/>
+      <c r="E95" s="372"/>
+      <c r="F95" s="372"/>
+      <c r="G95" s="373"/>
+      <c r="H95" s="374"/>
+    </row>
+    <row r="96" spans="2:8" ht="11.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="331"/>
+      <c r="C96" s="331"/>
+      <c r="D96" s="331"/>
+      <c r="E96" s="362"/>
+      <c r="F96" s="363"/>
+      <c r="G96" s="364"/>
+      <c r="H96" s="331"/>
+    </row>
+    <row r="97" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="331"/>
+      <c r="C97" s="331"/>
+      <c r="D97" s="331"/>
+      <c r="E97" s="362"/>
+      <c r="F97" s="363"/>
+      <c r="G97" s="364"/>
+      <c r="H97" s="331"/>
+    </row>
+    <row r="98" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="331"/>
+      <c r="C98" s="331"/>
+      <c r="D98" s="331"/>
+      <c r="E98" s="362"/>
+      <c r="F98" s="363"/>
+      <c r="G98" s="364"/>
+      <c r="H98" s="331"/>
+    </row>
+    <row r="99" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D13:D17"/>
     <mergeCell ref="D9:D12"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="D33:D40"/>
+    <mergeCell ref="D41:D48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13027,10 +13099,10 @@
       <c r="E3" s="497" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="421" t="s">
+      <c r="F3" s="412" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="421" t="s">
+      <c r="G3" s="412" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="489"/>
@@ -13038,12 +13110,12 @@
       <c r="J3" s="491"/>
     </row>
     <row r="4" spans="2:10" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="420"/>
-      <c r="C4" s="422"/>
-      <c r="D4" s="422"/>
-      <c r="E4" s="424"/>
-      <c r="F4" s="425"/>
-      <c r="G4" s="425"/>
+      <c r="B4" s="411"/>
+      <c r="C4" s="413"/>
+      <c r="D4" s="413"/>
+      <c r="E4" s="415"/>
+      <c r="F4" s="416"/>
+      <c r="G4" s="416"/>
       <c r="H4" s="135" t="s">
         <v>133</v>
       </c>
@@ -13051,10 +13123,10 @@
       <c r="J4" s="122"/>
     </row>
     <row r="5" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="412" t="s">
+      <c r="B5" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="387" t="s">
+      <c r="C5" s="403" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="131" t="s">
@@ -13074,8 +13146,8 @@
       <c r="J5" s="109"/>
     </row>
     <row r="6" spans="2:10" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="413"/>
-      <c r="C6" s="415"/>
+      <c r="B6" s="401"/>
+      <c r="C6" s="404"/>
       <c r="D6" s="132" t="s">
         <v>27</v>
       </c>
@@ -13093,8 +13165,8 @@
       <c r="J6" s="112"/>
     </row>
     <row r="7" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="414"/>
-      <c r="C7" s="389"/>
+      <c r="B7" s="402"/>
+      <c r="C7" s="405"/>
       <c r="D7" s="129" t="s">
         <v>28</v>
       </c>
@@ -13114,8 +13186,8 @@
       <c r="J7" s="112"/>
     </row>
     <row r="8" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="414"/>
-      <c r="C8" s="389"/>
+      <c r="B8" s="402"/>
+      <c r="C8" s="405"/>
       <c r="D8" s="129" t="s">
         <v>49</v>
       </c>
@@ -13133,8 +13205,8 @@
       <c r="J8" s="112"/>
     </row>
     <row r="9" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="414"/>
-      <c r="C9" s="389"/>
+      <c r="B9" s="402"/>
+      <c r="C9" s="405"/>
       <c r="D9" s="137" t="s">
         <v>135</v>
       </c>
@@ -13152,8 +13224,8 @@
       <c r="J9" s="112"/>
     </row>
     <row r="10" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="414"/>
-      <c r="C10" s="389"/>
+      <c r="B10" s="402"/>
+      <c r="C10" s="405"/>
       <c r="D10" s="129" t="s">
         <v>30</v>
       </c>
@@ -13171,8 +13243,8 @@
       <c r="J10" s="112"/>
     </row>
     <row r="11" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="414"/>
-      <c r="C11" s="389"/>
+      <c r="B11" s="402"/>
+      <c r="C11" s="405"/>
       <c r="D11" s="129" t="s">
         <v>31</v>
       </c>
@@ -13190,8 +13262,8 @@
       <c r="J11" s="112"/>
     </row>
     <row r="12" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="414"/>
-      <c r="C12" s="389"/>
+      <c r="B12" s="402"/>
+      <c r="C12" s="405"/>
       <c r="D12" s="129" t="s">
         <v>33</v>
       </c>
@@ -13209,8 +13281,8 @@
       <c r="J12" s="112"/>
     </row>
     <row r="13" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="414"/>
-      <c r="C13" s="389"/>
+      <c r="B13" s="402"/>
+      <c r="C13" s="405"/>
       <c r="D13" s="141" t="s">
         <v>136</v>
       </c>
@@ -13228,8 +13300,8 @@
       <c r="J13" s="112"/>
     </row>
     <row r="14" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="414"/>
-      <c r="C14" s="389"/>
+      <c r="B14" s="402"/>
+      <c r="C14" s="405"/>
       <c r="D14" s="46" t="s">
         <v>55</v>
       </c>
@@ -13247,8 +13319,8 @@
       <c r="J14" s="112"/>
     </row>
     <row r="15" spans="2:10" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="414"/>
-      <c r="C15" s="389"/>
+      <c r="B15" s="402"/>
+      <c r="C15" s="405"/>
       <c r="D15" s="493" t="s">
         <v>50</v>
       </c>
@@ -13266,8 +13338,8 @@
       <c r="J15" s="112"/>
     </row>
     <row r="16" spans="2:10" ht="19.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="414"/>
-      <c r="C16" s="390"/>
+      <c r="B16" s="402"/>
+      <c r="C16" s="406"/>
       <c r="D16" s="494"/>
       <c r="E16" s="19"/>
       <c r="F16" s="14"/>
@@ -13277,8 +13349,8 @@
       <c r="J16" s="112"/>
     </row>
     <row r="17" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="414"/>
-      <c r="C17" s="418" t="s">
+      <c r="B17" s="402"/>
+      <c r="C17" s="409" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="130" t="s">
@@ -13298,8 +13370,8 @@
       <c r="J17" s="125"/>
     </row>
     <row r="18" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="414"/>
-      <c r="C18" s="414"/>
+      <c r="B18" s="402"/>
+      <c r="C18" s="402"/>
       <c r="D18" s="129" t="s">
         <v>19</v>
       </c>
@@ -13317,8 +13389,8 @@
       <c r="J18" s="125"/>
     </row>
     <row r="19" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="414"/>
-      <c r="C19" s="414"/>
+      <c r="B19" s="402"/>
+      <c r="C19" s="402"/>
       <c r="D19" s="129" t="s">
         <v>20</v>
       </c>
@@ -13336,8 +13408,8 @@
       <c r="J19" s="125"/>
     </row>
     <row r="20" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="414"/>
-      <c r="C20" s="414"/>
+      <c r="B20" s="402"/>
+      <c r="C20" s="402"/>
       <c r="D20" s="129" t="s">
         <v>21</v>
       </c>
@@ -13355,8 +13427,8 @@
       <c r="J20" s="125"/>
     </row>
     <row r="21" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="414"/>
-      <c r="C21" s="414"/>
+      <c r="B21" s="402"/>
+      <c r="C21" s="402"/>
       <c r="D21" s="129" t="s">
         <v>22</v>
       </c>
@@ -13374,8 +13446,8 @@
       <c r="J21" s="112"/>
     </row>
     <row r="22" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="414"/>
-      <c r="C22" s="414"/>
+      <c r="B22" s="402"/>
+      <c r="C22" s="402"/>
       <c r="D22" s="129" t="s">
         <v>23</v>
       </c>
@@ -14104,17 +14176,17 @@
       <c r="J2" s="487"/>
       <c r="K2" s="487"/>
       <c r="L2" s="487"/>
-      <c r="M2" s="500"/>
-      <c r="N2" s="500"/>
-      <c r="O2" s="500"/>
-      <c r="P2" s="500"/>
-      <c r="Q2" s="500"/>
-      <c r="R2" s="500"/>
-      <c r="S2" s="500"/>
-      <c r="T2" s="500"/>
-      <c r="U2" s="500"/>
-      <c r="V2" s="500"/>
-      <c r="W2" s="500"/>
+      <c r="M2" s="527"/>
+      <c r="N2" s="527"/>
+      <c r="O2" s="527"/>
+      <c r="P2" s="527"/>
+      <c r="Q2" s="527"/>
+      <c r="R2" s="527"/>
+      <c r="S2" s="527"/>
+      <c r="T2" s="527"/>
+      <c r="U2" s="527"/>
+      <c r="V2" s="527"/>
+      <c r="W2" s="527"/>
       <c r="X2" s="487"/>
       <c r="Y2" s="487"/>
       <c r="Z2" s="488"/>
@@ -14132,16 +14204,16 @@
       <c r="E3" s="497" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="421" t="s">
+      <c r="F3" s="412" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="421" t="s">
+      <c r="G3" s="412" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="421" t="s">
+      <c r="H3" s="412" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="421" t="s">
+      <c r="I3" s="412" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="496" t="s">
@@ -14150,83 +14222,83 @@
       <c r="K3" s="496" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="502" t="s">
+      <c r="L3" s="529" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="504" t="s">
+      <c r="M3" s="531" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="498" t="s">
+      <c r="N3" s="525" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="498" t="s">
+      <c r="O3" s="525" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="498" t="s">
+      <c r="P3" s="525" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="518" t="s">
+      <c r="Q3" s="517" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="520" t="s">
+      <c r="R3" s="519" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="522" t="s">
+      <c r="S3" s="521" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="522" t="s">
+      <c r="T3" s="521" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="522" t="s">
+      <c r="U3" s="521" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="524" t="s">
+      <c r="V3" s="523" t="s">
         <v>72</v>
       </c>
       <c r="W3" s="68"/>
-      <c r="X3" s="506" t="s">
+      <c r="X3" s="508" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="507"/>
-      <c r="Z3" s="508"/>
+      <c r="Y3" s="509"/>
+      <c r="Z3" s="510"/>
     </row>
     <row r="4" spans="2:26" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="420"/>
-      <c r="C4" s="422"/>
-      <c r="D4" s="422"/>
-      <c r="E4" s="424"/>
-      <c r="F4" s="425"/>
-      <c r="G4" s="425"/>
-      <c r="H4" s="425"/>
-      <c r="I4" s="425"/>
-      <c r="J4" s="501"/>
-      <c r="K4" s="501"/>
-      <c r="L4" s="503"/>
-      <c r="M4" s="505"/>
-      <c r="N4" s="499"/>
-      <c r="O4" s="499"/>
-      <c r="P4" s="499"/>
-      <c r="Q4" s="519"/>
-      <c r="R4" s="521"/>
-      <c r="S4" s="523"/>
-      <c r="T4" s="523"/>
-      <c r="U4" s="523"/>
-      <c r="V4" s="525"/>
+      <c r="B4" s="411"/>
+      <c r="C4" s="413"/>
+      <c r="D4" s="413"/>
+      <c r="E4" s="415"/>
+      <c r="F4" s="416"/>
+      <c r="G4" s="416"/>
+      <c r="H4" s="416"/>
+      <c r="I4" s="416"/>
+      <c r="J4" s="528"/>
+      <c r="K4" s="528"/>
+      <c r="L4" s="530"/>
+      <c r="M4" s="532"/>
+      <c r="N4" s="526"/>
+      <c r="O4" s="526"/>
+      <c r="P4" s="526"/>
+      <c r="Q4" s="518"/>
+      <c r="R4" s="520"/>
+      <c r="S4" s="522"/>
+      <c r="T4" s="522"/>
+      <c r="U4" s="522"/>
+      <c r="V4" s="524"/>
       <c r="W4" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="X4" s="509"/>
-      <c r="Y4" s="509"/>
-      <c r="Z4" s="510"/>
+      <c r="X4" s="511"/>
+      <c r="Y4" s="511"/>
+      <c r="Z4" s="512"/>
     </row>
     <row r="5" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="412" t="s">
+      <c r="B5" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="387" t="s">
+      <c r="C5" s="403" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="511" t="s">
+      <c r="D5" s="513" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21">
@@ -14277,9 +14349,9 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="413"/>
-      <c r="C6" s="415"/>
-      <c r="D6" s="512"/>
+      <c r="B6" s="401"/>
+      <c r="C6" s="404"/>
+      <c r="D6" s="514"/>
       <c r="E6" s="35"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
@@ -14306,9 +14378,9 @@
       <c r="Z6" s="12"/>
     </row>
     <row r="7" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="413"/>
-      <c r="C7" s="415"/>
-      <c r="D7" s="513" t="s">
+      <c r="B7" s="401"/>
+      <c r="C7" s="404"/>
+      <c r="D7" s="515" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="22">
@@ -14349,9 +14421,9 @@
       <c r="Z7" s="12"/>
     </row>
     <row r="8" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="413"/>
-      <c r="C8" s="389"/>
-      <c r="D8" s="513"/>
+      <c r="B8" s="401"/>
+      <c r="C8" s="405"/>
+      <c r="D8" s="515"/>
       <c r="E8" s="35"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -14376,9 +14448,9 @@
       <c r="Z8" s="42"/>
     </row>
     <row r="9" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="414"/>
-      <c r="C9" s="389"/>
-      <c r="D9" s="514" t="s">
+      <c r="B9" s="402"/>
+      <c r="C9" s="405"/>
+      <c r="D9" s="498" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="22">
@@ -14423,9 +14495,9 @@
       <c r="Z9" s="12"/>
     </row>
     <row r="10" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="414"/>
-      <c r="C10" s="389"/>
-      <c r="D10" s="515"/>
+      <c r="B10" s="402"/>
+      <c r="C10" s="405"/>
+      <c r="D10" s="499"/>
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
@@ -14450,9 +14522,9 @@
       <c r="Z10" s="12"/>
     </row>
     <row r="11" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="414"/>
-      <c r="C11" s="389"/>
-      <c r="D11" s="514" t="s">
+      <c r="B11" s="402"/>
+      <c r="C11" s="405"/>
+      <c r="D11" s="498" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="22">
@@ -14493,9 +14565,9 @@
       <c r="Z11" s="12"/>
     </row>
     <row r="12" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="414"/>
-      <c r="C12" s="389"/>
-      <c r="D12" s="515"/>
+      <c r="B12" s="402"/>
+      <c r="C12" s="405"/>
+      <c r="D12" s="499"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
@@ -14522,9 +14594,9 @@
       <c r="Z12" s="12"/>
     </row>
     <row r="13" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="414"/>
-      <c r="C13" s="389"/>
-      <c r="D13" s="516" t="s">
+      <c r="B13" s="402"/>
+      <c r="C13" s="405"/>
+      <c r="D13" s="504" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="22">
@@ -14557,9 +14629,9 @@
       <c r="Z13" s="12"/>
     </row>
     <row r="14" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="414"/>
-      <c r="C14" s="389"/>
-      <c r="D14" s="517"/>
+      <c r="B14" s="402"/>
+      <c r="C14" s="405"/>
+      <c r="D14" s="516"/>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
@@ -14586,9 +14658,9 @@
       <c r="Z14" s="12"/>
     </row>
     <row r="15" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="414"/>
-      <c r="C15" s="389"/>
-      <c r="D15" s="514" t="s">
+      <c r="B15" s="402"/>
+      <c r="C15" s="405"/>
+      <c r="D15" s="498" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="22">
@@ -14625,9 +14697,9 @@
       <c r="Z15" s="12"/>
     </row>
     <row r="16" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="414"/>
-      <c r="C16" s="389"/>
-      <c r="D16" s="515"/>
+      <c r="B16" s="402"/>
+      <c r="C16" s="405"/>
+      <c r="D16" s="499"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -14654,9 +14726,9 @@
       <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="414"/>
-      <c r="C17" s="389"/>
-      <c r="D17" s="514" t="s">
+      <c r="B17" s="402"/>
+      <c r="C17" s="405"/>
+      <c r="D17" s="498" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="22">
@@ -14699,9 +14771,9 @@
       <c r="Z17" s="12"/>
     </row>
     <row r="18" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="414"/>
-      <c r="C18" s="389"/>
-      <c r="D18" s="515"/>
+      <c r="B18" s="402"/>
+      <c r="C18" s="405"/>
+      <c r="D18" s="499"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
@@ -14728,9 +14800,9 @@
       <c r="Z18" s="12"/>
     </row>
     <row r="19" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="414"/>
-      <c r="C19" s="389"/>
-      <c r="D19" s="514" t="s">
+      <c r="B19" s="402"/>
+      <c r="C19" s="405"/>
+      <c r="D19" s="498" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="22">
@@ -14767,9 +14839,9 @@
       <c r="Z19" s="12"/>
     </row>
     <row r="20" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="414"/>
-      <c r="C20" s="389"/>
-      <c r="D20" s="515"/>
+      <c r="B20" s="402"/>
+      <c r="C20" s="405"/>
+      <c r="D20" s="499"/>
       <c r="E20" s="35"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
@@ -14796,9 +14868,9 @@
       <c r="Z20" s="12"/>
     </row>
     <row r="21" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="414"/>
-      <c r="C21" s="389"/>
-      <c r="D21" s="526" t="s">
+      <c r="B21" s="402"/>
+      <c r="C21" s="405"/>
+      <c r="D21" s="500" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="22">
@@ -14831,9 +14903,9 @@
       <c r="Z21" s="12"/>
     </row>
     <row r="22" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="414"/>
-      <c r="C22" s="389"/>
-      <c r="D22" s="527"/>
+      <c r="B22" s="402"/>
+      <c r="C22" s="405"/>
+      <c r="D22" s="501"/>
       <c r="E22" s="35"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
@@ -14860,8 +14932,8 @@
       <c r="Z22" s="12"/>
     </row>
     <row r="23" spans="2:26" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="414"/>
-      <c r="C23" s="389"/>
+      <c r="B23" s="402"/>
+      <c r="C23" s="405"/>
       <c r="D23" s="46" t="s">
         <v>55</v>
       </c>
@@ -14901,8 +14973,8 @@
       <c r="Z23" s="12"/>
     </row>
     <row r="24" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="414"/>
-      <c r="C24" s="389"/>
+      <c r="B24" s="402"/>
+      <c r="C24" s="405"/>
       <c r="D24" s="46"/>
       <c r="E24" s="35"/>
       <c r="F24" s="36"/>
@@ -14928,8 +15000,8 @@
       <c r="Z24" s="12"/>
     </row>
     <row r="25" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="414"/>
-      <c r="C25" s="389"/>
+      <c r="B25" s="402"/>
+      <c r="C25" s="405"/>
       <c r="D25" s="493" t="s">
         <v>50</v>
       </c>
@@ -14967,9 +15039,9 @@
       <c r="Z25" s="12"/>
     </row>
     <row r="26" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="414"/>
-      <c r="C26" s="390"/>
-      <c r="D26" s="528"/>
+      <c r="B26" s="402"/>
+      <c r="C26" s="406"/>
+      <c r="D26" s="502"/>
       <c r="E26" s="19"/>
       <c r="F26" s="14"/>
       <c r="G26" s="13"/>
@@ -14996,11 +15068,11 @@
       <c r="Z26" s="17"/>
     </row>
     <row r="27" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="414"/>
-      <c r="C27" s="418" t="s">
+      <c r="B27" s="402"/>
+      <c r="C27" s="409" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="529" t="s">
+      <c r="D27" s="503" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="21">
@@ -15037,9 +15109,9 @@
       <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="414"/>
-      <c r="C28" s="413"/>
-      <c r="D28" s="515"/>
+      <c r="B28" s="402"/>
+      <c r="C28" s="401"/>
+      <c r="D28" s="499"/>
       <c r="E28" s="18"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
@@ -15066,9 +15138,9 @@
       <c r="Z28" s="12"/>
     </row>
     <row r="29" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="414"/>
-      <c r="C29" s="414"/>
-      <c r="D29" s="514" t="s">
+      <c r="B29" s="402"/>
+      <c r="C29" s="402"/>
+      <c r="D29" s="498" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="22">
@@ -15105,9 +15177,9 @@
       <c r="Z29" s="12"/>
     </row>
     <row r="30" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="414"/>
-      <c r="C30" s="414"/>
-      <c r="D30" s="515"/>
+      <c r="B30" s="402"/>
+      <c r="C30" s="402"/>
+      <c r="D30" s="499"/>
       <c r="E30" s="18"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
@@ -15134,9 +15206,9 @@
       <c r="Z30" s="12"/>
     </row>
     <row r="31" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="414"/>
-      <c r="C31" s="414"/>
-      <c r="D31" s="514" t="s">
+      <c r="B31" s="402"/>
+      <c r="C31" s="402"/>
+      <c r="D31" s="498" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="22">
@@ -15173,9 +15245,9 @@
       <c r="Z31" s="12"/>
     </row>
     <row r="32" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="414"/>
-      <c r="C32" s="414"/>
-      <c r="D32" s="515"/>
+      <c r="B32" s="402"/>
+      <c r="C32" s="402"/>
+      <c r="D32" s="499"/>
       <c r="E32" s="18"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -15202,9 +15274,9 @@
       <c r="Z32" s="12"/>
     </row>
     <row r="33" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="414"/>
-      <c r="C33" s="414"/>
-      <c r="D33" s="514" t="s">
+      <c r="B33" s="402"/>
+      <c r="C33" s="402"/>
+      <c r="D33" s="498" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="22">
@@ -15241,9 +15313,9 @@
       <c r="Z33" s="12"/>
     </row>
     <row r="34" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="414"/>
-      <c r="C34" s="414"/>
-      <c r="D34" s="515"/>
+      <c r="B34" s="402"/>
+      <c r="C34" s="402"/>
+      <c r="D34" s="499"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
@@ -15270,9 +15342,9 @@
       <c r="Z34" s="12"/>
     </row>
     <row r="35" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="414"/>
-      <c r="C35" s="414"/>
-      <c r="D35" s="514" t="s">
+      <c r="B35" s="402"/>
+      <c r="C35" s="402"/>
+      <c r="D35" s="498" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="22">
@@ -15309,9 +15381,9 @@
       <c r="Z35" s="12"/>
     </row>
     <row r="36" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="414"/>
-      <c r="C36" s="414"/>
-      <c r="D36" s="515"/>
+      <c r="B36" s="402"/>
+      <c r="C36" s="402"/>
+      <c r="D36" s="499"/>
       <c r="E36" s="18"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
@@ -15338,9 +15410,9 @@
       <c r="Z36" s="12"/>
     </row>
     <row r="37" spans="2:26" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="414"/>
-      <c r="C37" s="414"/>
-      <c r="D37" s="514" t="s">
+      <c r="B37" s="402"/>
+      <c r="C37" s="402"/>
+      <c r="D37" s="498" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="22">
@@ -15377,9 +15449,9 @@
       <c r="Z37" s="12"/>
     </row>
     <row r="38" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="414"/>
-      <c r="C38" s="414"/>
-      <c r="D38" s="515"/>
+      <c r="B38" s="402"/>
+      <c r="C38" s="402"/>
+      <c r="D38" s="499"/>
       <c r="E38" s="18"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
@@ -15406,9 +15478,9 @@
       <c r="Z38" s="12"/>
     </row>
     <row r="39" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="414"/>
-      <c r="C39" s="414"/>
-      <c r="D39" s="516" t="s">
+      <c r="B39" s="402"/>
+      <c r="C39" s="402"/>
+      <c r="D39" s="504" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="22">
@@ -15439,9 +15511,9 @@
       <c r="Z39" s="12"/>
     </row>
     <row r="40" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="414"/>
-      <c r="C40" s="414"/>
-      <c r="D40" s="530"/>
+      <c r="B40" s="402"/>
+      <c r="C40" s="402"/>
+      <c r="D40" s="505"/>
       <c r="E40" s="18"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
@@ -15468,9 +15540,9 @@
       <c r="Z40" s="12"/>
     </row>
     <row r="41" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="414"/>
-      <c r="C41" s="414"/>
-      <c r="D41" s="531" t="s">
+      <c r="B41" s="402"/>
+      <c r="C41" s="402"/>
+      <c r="D41" s="506" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="80"/>
@@ -15503,9 +15575,9 @@
       <c r="Z41" s="12"/>
     </row>
     <row r="42" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="414"/>
-      <c r="C42" s="414"/>
-      <c r="D42" s="532"/>
+      <c r="B42" s="402"/>
+      <c r="C42" s="402"/>
+      <c r="D42" s="507"/>
       <c r="E42" s="83"/>
       <c r="F42" s="84"/>
       <c r="G42" s="85"/>
@@ -15532,13 +15604,13 @@
       <c r="Z42" s="92"/>
     </row>
     <row r="43" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="387" t="s">
+      <c r="B43" s="403" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="391" t="s">
+      <c r="C43" s="420" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="395" t="s">
+      <c r="D43" s="424" t="s">
         <v>115</v>
       </c>
       <c r="E43" s="21">
@@ -15573,9 +15645,9 @@
       <c r="Z43" s="95"/>
     </row>
     <row r="44" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="388"/>
-      <c r="C44" s="392"/>
-      <c r="D44" s="396"/>
+      <c r="B44" s="419"/>
+      <c r="C44" s="421"/>
+      <c r="D44" s="425"/>
       <c r="E44" s="22">
         <v>2</v>
       </c>
@@ -15591,9 +15663,9 @@
       <c r="Z44" s="97"/>
     </row>
     <row r="45" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="389"/>
-      <c r="C45" s="393"/>
-      <c r="D45" s="396"/>
+      <c r="B45" s="405"/>
+      <c r="C45" s="422"/>
+      <c r="D45" s="425"/>
       <c r="E45" s="22">
         <v>3</v>
       </c>
@@ -15609,9 +15681,9 @@
       <c r="Z45" s="97"/>
     </row>
     <row r="46" spans="2:26" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="389"/>
-      <c r="C46" s="393"/>
-      <c r="D46" s="397" t="s">
+      <c r="B46" s="405"/>
+      <c r="C46" s="422"/>
+      <c r="D46" s="426" t="s">
         <v>116</v>
       </c>
       <c r="E46" s="22">
@@ -15626,18 +15698,18 @@
       <c r="Z46" s="97"/>
     </row>
     <row r="47" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="389"/>
-      <c r="C47" s="393"/>
-      <c r="D47" s="397"/>
+      <c r="B47" s="405"/>
+      <c r="C47" s="422"/>
+      <c r="D47" s="426"/>
       <c r="E47" s="35"/>
       <c r="F47" s="96"/>
       <c r="G47" s="37"/>
       <c r="Z47" s="97"/>
     </row>
     <row r="48" spans="2:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="389"/>
-      <c r="C48" s="393"/>
-      <c r="D48" s="397" t="s">
+      <c r="B48" s="405"/>
+      <c r="C48" s="422"/>
+      <c r="D48" s="426" t="s">
         <v>117</v>
       </c>
       <c r="E48" s="22">
@@ -15652,18 +15724,18 @@
       <c r="Z48" s="97"/>
     </row>
     <row r="49" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="389"/>
-      <c r="C49" s="393"/>
-      <c r="D49" s="397"/>
+      <c r="B49" s="405"/>
+      <c r="C49" s="422"/>
+      <c r="D49" s="426"/>
       <c r="E49" s="35"/>
       <c r="F49" s="96"/>
       <c r="G49" s="37"/>
       <c r="Z49" s="97"/>
     </row>
     <row r="50" spans="2:26" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="389"/>
-      <c r="C50" s="393"/>
-      <c r="D50" s="397" t="s">
+      <c r="B50" s="405"/>
+      <c r="C50" s="422"/>
+      <c r="D50" s="426" t="s">
         <v>118</v>
       </c>
       <c r="E50" s="22">
@@ -15678,9 +15750,9 @@
       <c r="Z50" s="97"/>
     </row>
     <row r="51" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="390"/>
-      <c r="C51" s="394"/>
-      <c r="D51" s="398"/>
+      <c r="B51" s="406"/>
+      <c r="C51" s="423"/>
+      <c r="D51" s="427"/>
       <c r="E51" s="98"/>
       <c r="F51" s="99"/>
       <c r="G51" s="100"/>
@@ -15991,18 +16063,28 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="50">
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C42"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="B43:B51"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C43:C51"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B2:Z2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
     <mergeCell ref="X3:Z4"/>
     <mergeCell ref="B5:B42"/>
     <mergeCell ref="C5:C26"/>
@@ -16019,28 +16101,18 @@
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="V3:V4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B2:Z2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="B43:B51"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C43:C51"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C42"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -16097,17 +16169,17 @@
       <c r="J2" s="487"/>
       <c r="K2" s="487"/>
       <c r="L2" s="487"/>
-      <c r="M2" s="500"/>
-      <c r="N2" s="500"/>
-      <c r="O2" s="500"/>
-      <c r="P2" s="500"/>
-      <c r="Q2" s="500"/>
-      <c r="R2" s="500"/>
-      <c r="S2" s="500"/>
-      <c r="T2" s="500"/>
-      <c r="U2" s="500"/>
-      <c r="V2" s="500"/>
-      <c r="W2" s="500"/>
+      <c r="M2" s="527"/>
+      <c r="N2" s="527"/>
+      <c r="O2" s="527"/>
+      <c r="P2" s="527"/>
+      <c r="Q2" s="527"/>
+      <c r="R2" s="527"/>
+      <c r="S2" s="527"/>
+      <c r="T2" s="527"/>
+      <c r="U2" s="527"/>
+      <c r="V2" s="527"/>
+      <c r="W2" s="527"/>
       <c r="X2" s="487"/>
       <c r="Y2" s="487"/>
       <c r="Z2" s="488"/>
@@ -16125,16 +16197,16 @@
       <c r="E3" s="497" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="421" t="s">
+      <c r="F3" s="412" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="421" t="s">
+      <c r="G3" s="412" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="421" t="s">
+      <c r="H3" s="412" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="421" t="s">
+      <c r="I3" s="412" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="496" t="s">
@@ -16143,83 +16215,83 @@
       <c r="K3" s="496" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="502" t="s">
+      <c r="L3" s="529" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="504" t="s">
+      <c r="M3" s="531" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="498" t="s">
+      <c r="N3" s="525" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="498" t="s">
+      <c r="O3" s="525" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="498" t="s">
+      <c r="P3" s="525" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="518" t="s">
+      <c r="Q3" s="517" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="520" t="s">
+      <c r="R3" s="519" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="522" t="s">
+      <c r="S3" s="521" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="522" t="s">
+      <c r="T3" s="521" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="522" t="s">
+      <c r="U3" s="521" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="524" t="s">
+      <c r="V3" s="523" t="s">
         <v>72</v>
       </c>
       <c r="W3" s="68"/>
-      <c r="X3" s="506" t="s">
+      <c r="X3" s="508" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="507"/>
-      <c r="Z3" s="508"/>
+      <c r="Y3" s="509"/>
+      <c r="Z3" s="510"/>
     </row>
     <row r="4" spans="2:26" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="420"/>
-      <c r="C4" s="422"/>
-      <c r="D4" s="422"/>
-      <c r="E4" s="424"/>
-      <c r="F4" s="425"/>
-      <c r="G4" s="425"/>
-      <c r="H4" s="425"/>
-      <c r="I4" s="425"/>
-      <c r="J4" s="501"/>
-      <c r="K4" s="501"/>
-      <c r="L4" s="503"/>
-      <c r="M4" s="505"/>
-      <c r="N4" s="499"/>
-      <c r="O4" s="499"/>
-      <c r="P4" s="499"/>
-      <c r="Q4" s="519"/>
-      <c r="R4" s="521"/>
-      <c r="S4" s="523"/>
-      <c r="T4" s="523"/>
-      <c r="U4" s="523"/>
-      <c r="V4" s="525"/>
+      <c r="B4" s="411"/>
+      <c r="C4" s="413"/>
+      <c r="D4" s="413"/>
+      <c r="E4" s="415"/>
+      <c r="F4" s="416"/>
+      <c r="G4" s="416"/>
+      <c r="H4" s="416"/>
+      <c r="I4" s="416"/>
+      <c r="J4" s="528"/>
+      <c r="K4" s="528"/>
+      <c r="L4" s="530"/>
+      <c r="M4" s="532"/>
+      <c r="N4" s="526"/>
+      <c r="O4" s="526"/>
+      <c r="P4" s="526"/>
+      <c r="Q4" s="518"/>
+      <c r="R4" s="520"/>
+      <c r="S4" s="522"/>
+      <c r="T4" s="522"/>
+      <c r="U4" s="522"/>
+      <c r="V4" s="524"/>
       <c r="W4" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="X4" s="509"/>
-      <c r="Y4" s="509"/>
-      <c r="Z4" s="510"/>
+      <c r="X4" s="511"/>
+      <c r="Y4" s="511"/>
+      <c r="Z4" s="512"/>
     </row>
     <row r="5" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="412" t="s">
+      <c r="B5" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="387" t="s">
+      <c r="C5" s="403" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="511" t="s">
+      <c r="D5" s="513" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21">
@@ -16270,9 +16342,9 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="413"/>
-      <c r="C6" s="415"/>
-      <c r="D6" s="512"/>
+      <c r="B6" s="401"/>
+      <c r="C6" s="404"/>
+      <c r="D6" s="514"/>
       <c r="E6" s="35"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
@@ -16299,9 +16371,9 @@
       <c r="Z6" s="12"/>
     </row>
     <row r="7" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="413"/>
-      <c r="C7" s="415"/>
-      <c r="D7" s="513" t="s">
+      <c r="B7" s="401"/>
+      <c r="C7" s="404"/>
+      <c r="D7" s="515" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="22">
@@ -16342,9 +16414,9 @@
       <c r="Z7" s="12"/>
     </row>
     <row r="8" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="413"/>
-      <c r="C8" s="389"/>
-      <c r="D8" s="513"/>
+      <c r="B8" s="401"/>
+      <c r="C8" s="405"/>
+      <c r="D8" s="515"/>
       <c r="E8" s="35"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -16369,9 +16441,9 @@
       <c r="Z8" s="42"/>
     </row>
     <row r="9" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="414"/>
-      <c r="C9" s="389"/>
-      <c r="D9" s="514" t="s">
+      <c r="B9" s="402"/>
+      <c r="C9" s="405"/>
+      <c r="D9" s="498" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="22">
@@ -16416,9 +16488,9 @@
       <c r="Z9" s="12"/>
     </row>
     <row r="10" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="414"/>
-      <c r="C10" s="389"/>
-      <c r="D10" s="515"/>
+      <c r="B10" s="402"/>
+      <c r="C10" s="405"/>
+      <c r="D10" s="499"/>
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
@@ -16443,9 +16515,9 @@
       <c r="Z10" s="12"/>
     </row>
     <row r="11" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="414"/>
-      <c r="C11" s="389"/>
-      <c r="D11" s="514" t="s">
+      <c r="B11" s="402"/>
+      <c r="C11" s="405"/>
+      <c r="D11" s="498" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="22">
@@ -16486,9 +16558,9 @@
       <c r="Z11" s="12"/>
     </row>
     <row r="12" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="414"/>
-      <c r="C12" s="389"/>
-      <c r="D12" s="515"/>
+      <c r="B12" s="402"/>
+      <c r="C12" s="405"/>
+      <c r="D12" s="499"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
@@ -16515,9 +16587,9 @@
       <c r="Z12" s="12"/>
     </row>
     <row r="13" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="414"/>
-      <c r="C13" s="389"/>
-      <c r="D13" s="516" t="s">
+      <c r="B13" s="402"/>
+      <c r="C13" s="405"/>
+      <c r="D13" s="504" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="22">
@@ -16550,9 +16622,9 @@
       <c r="Z13" s="12"/>
     </row>
     <row r="14" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="414"/>
-      <c r="C14" s="389"/>
-      <c r="D14" s="517"/>
+      <c r="B14" s="402"/>
+      <c r="C14" s="405"/>
+      <c r="D14" s="516"/>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
@@ -16579,9 +16651,9 @@
       <c r="Z14" s="12"/>
     </row>
     <row r="15" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="414"/>
-      <c r="C15" s="389"/>
-      <c r="D15" s="514" t="s">
+      <c r="B15" s="402"/>
+      <c r="C15" s="405"/>
+      <c r="D15" s="498" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="22">
@@ -16618,9 +16690,9 @@
       <c r="Z15" s="12"/>
     </row>
     <row r="16" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="414"/>
-      <c r="C16" s="389"/>
-      <c r="D16" s="515"/>
+      <c r="B16" s="402"/>
+      <c r="C16" s="405"/>
+      <c r="D16" s="499"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -16647,9 +16719,9 @@
       <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="414"/>
-      <c r="C17" s="389"/>
-      <c r="D17" s="514" t="s">
+      <c r="B17" s="402"/>
+      <c r="C17" s="405"/>
+      <c r="D17" s="498" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="22">
@@ -16692,9 +16764,9 @@
       <c r="Z17" s="12"/>
     </row>
     <row r="18" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="414"/>
-      <c r="C18" s="389"/>
-      <c r="D18" s="515"/>
+      <c r="B18" s="402"/>
+      <c r="C18" s="405"/>
+      <c r="D18" s="499"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
@@ -16721,9 +16793,9 @@
       <c r="Z18" s="12"/>
     </row>
     <row r="19" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="414"/>
-      <c r="C19" s="389"/>
-      <c r="D19" s="514" t="s">
+      <c r="B19" s="402"/>
+      <c r="C19" s="405"/>
+      <c r="D19" s="498" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="22">
@@ -16760,9 +16832,9 @@
       <c r="Z19" s="12"/>
     </row>
     <row r="20" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="414"/>
-      <c r="C20" s="389"/>
-      <c r="D20" s="515"/>
+      <c r="B20" s="402"/>
+      <c r="C20" s="405"/>
+      <c r="D20" s="499"/>
       <c r="E20" s="35"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
@@ -16789,9 +16861,9 @@
       <c r="Z20" s="12"/>
     </row>
     <row r="21" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="414"/>
-      <c r="C21" s="389"/>
-      <c r="D21" s="526" t="s">
+      <c r="B21" s="402"/>
+      <c r="C21" s="405"/>
+      <c r="D21" s="500" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="22">
@@ -16826,9 +16898,9 @@
       <c r="Z21" s="12"/>
     </row>
     <row r="22" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="414"/>
-      <c r="C22" s="389"/>
-      <c r="D22" s="527"/>
+      <c r="B22" s="402"/>
+      <c r="C22" s="405"/>
+      <c r="D22" s="501"/>
       <c r="E22" s="35"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
@@ -16855,8 +16927,8 @@
       <c r="Z22" s="12"/>
     </row>
     <row r="23" spans="2:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="414"/>
-      <c r="C23" s="389"/>
+      <c r="B23" s="402"/>
+      <c r="C23" s="405"/>
       <c r="D23" s="46" t="s">
         <v>55</v>
       </c>
@@ -16896,8 +16968,8 @@
       <c r="Z23" s="12"/>
     </row>
     <row r="24" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="414"/>
-      <c r="C24" s="389"/>
+      <c r="B24" s="402"/>
+      <c r="C24" s="405"/>
       <c r="D24" s="46"/>
       <c r="E24" s="35"/>
       <c r="F24" s="36"/>
@@ -16923,8 +16995,8 @@
       <c r="Z24" s="12"/>
     </row>
     <row r="25" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="414"/>
-      <c r="C25" s="389"/>
+      <c r="B25" s="402"/>
+      <c r="C25" s="405"/>
       <c r="D25" s="493" t="s">
         <v>50</v>
       </c>
@@ -16962,9 +17034,9 @@
       <c r="Z25" s="12"/>
     </row>
     <row r="26" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="414"/>
-      <c r="C26" s="390"/>
-      <c r="D26" s="528"/>
+      <c r="B26" s="402"/>
+      <c r="C26" s="406"/>
+      <c r="D26" s="502"/>
       <c r="E26" s="19"/>
       <c r="F26" s="14"/>
       <c r="G26" s="13"/>
@@ -16991,11 +17063,11 @@
       <c r="Z26" s="17"/>
     </row>
     <row r="27" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="414"/>
-      <c r="C27" s="418" t="s">
+      <c r="B27" s="402"/>
+      <c r="C27" s="409" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="529" t="s">
+      <c r="D27" s="503" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="21">
@@ -17032,9 +17104,9 @@
       <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="414"/>
-      <c r="C28" s="413"/>
-      <c r="D28" s="515"/>
+      <c r="B28" s="402"/>
+      <c r="C28" s="401"/>
+      <c r="D28" s="499"/>
       <c r="E28" s="18"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
@@ -17061,9 +17133,9 @@
       <c r="Z28" s="12"/>
     </row>
     <row r="29" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="414"/>
-      <c r="C29" s="414"/>
-      <c r="D29" s="514" t="s">
+      <c r="B29" s="402"/>
+      <c r="C29" s="402"/>
+      <c r="D29" s="498" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="22">
@@ -17100,9 +17172,9 @@
       <c r="Z29" s="12"/>
     </row>
     <row r="30" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="414"/>
-      <c r="C30" s="414"/>
-      <c r="D30" s="515"/>
+      <c r="B30" s="402"/>
+      <c r="C30" s="402"/>
+      <c r="D30" s="499"/>
       <c r="E30" s="18"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
@@ -17129,9 +17201,9 @@
       <c r="Z30" s="12"/>
     </row>
     <row r="31" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="414"/>
-      <c r="C31" s="414"/>
-      <c r="D31" s="514" t="s">
+      <c r="B31" s="402"/>
+      <c r="C31" s="402"/>
+      <c r="D31" s="498" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="22">
@@ -17168,9 +17240,9 @@
       <c r="Z31" s="12"/>
     </row>
     <row r="32" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="414"/>
-      <c r="C32" s="414"/>
-      <c r="D32" s="515"/>
+      <c r="B32" s="402"/>
+      <c r="C32" s="402"/>
+      <c r="D32" s="499"/>
       <c r="E32" s="18"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -17197,9 +17269,9 @@
       <c r="Z32" s="12"/>
     </row>
     <row r="33" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="414"/>
-      <c r="C33" s="414"/>
-      <c r="D33" s="514" t="s">
+      <c r="B33" s="402"/>
+      <c r="C33" s="402"/>
+      <c r="D33" s="498" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="22">
@@ -17236,9 +17308,9 @@
       <c r="Z33" s="12"/>
     </row>
     <row r="34" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="414"/>
-      <c r="C34" s="414"/>
-      <c r="D34" s="515"/>
+      <c r="B34" s="402"/>
+      <c r="C34" s="402"/>
+      <c r="D34" s="499"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
@@ -17265,9 +17337,9 @@
       <c r="Z34" s="12"/>
     </row>
     <row r="35" spans="2:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="414"/>
-      <c r="C35" s="414"/>
-      <c r="D35" s="514" t="s">
+      <c r="B35" s="402"/>
+      <c r="C35" s="402"/>
+      <c r="D35" s="498" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="22">
@@ -17304,9 +17376,9 @@
       <c r="Z35" s="12"/>
     </row>
     <row r="36" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="414"/>
-      <c r="C36" s="414"/>
-      <c r="D36" s="515"/>
+      <c r="B36" s="402"/>
+      <c r="C36" s="402"/>
+      <c r="D36" s="499"/>
       <c r="E36" s="18"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
@@ -17333,9 +17405,9 @@
       <c r="Z36" s="12"/>
     </row>
     <row r="37" spans="2:26" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="414"/>
-      <c r="C37" s="414"/>
-      <c r="D37" s="514" t="s">
+      <c r="B37" s="402"/>
+      <c r="C37" s="402"/>
+      <c r="D37" s="498" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="22">
@@ -17372,9 +17444,9 @@
       <c r="Z37" s="12"/>
     </row>
     <row r="38" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="414"/>
-      <c r="C38" s="414"/>
-      <c r="D38" s="515"/>
+      <c r="B38" s="402"/>
+      <c r="C38" s="402"/>
+      <c r="D38" s="499"/>
       <c r="E38" s="18"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
@@ -17401,9 +17473,9 @@
       <c r="Z38" s="12"/>
     </row>
     <row r="39" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="414"/>
-      <c r="C39" s="414"/>
-      <c r="D39" s="516" t="s">
+      <c r="B39" s="402"/>
+      <c r="C39" s="402"/>
+      <c r="D39" s="504" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="22">
@@ -17434,9 +17506,9 @@
       <c r="Z39" s="12"/>
     </row>
     <row r="40" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="414"/>
-      <c r="C40" s="414"/>
-      <c r="D40" s="530"/>
+      <c r="B40" s="402"/>
+      <c r="C40" s="402"/>
+      <c r="D40" s="505"/>
       <c r="E40" s="18"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
@@ -17463,8 +17535,8 @@
       <c r="Z40" s="12"/>
     </row>
     <row r="41" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="414"/>
-      <c r="C41" s="414"/>
+      <c r="B41" s="402"/>
+      <c r="C41" s="402"/>
       <c r="D41" s="493" t="s">
         <v>25</v>
       </c>
@@ -17863,16 +17935,24 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="44">
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
     <mergeCell ref="B5:B42"/>
     <mergeCell ref="C5:C26"/>
     <mergeCell ref="C27:C42"/>
@@ -17889,24 +17969,16 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -17994,16 +18066,16 @@
       <c r="E3" s="497" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="421" t="s">
+      <c r="F3" s="412" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="421" t="s">
+      <c r="G3" s="412" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="421" t="s">
+      <c r="H3" s="412" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="421" t="s">
+      <c r="I3" s="412" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="496" t="s">
@@ -18015,34 +18087,34 @@
       <c r="L3" s="496" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="504" t="s">
+      <c r="M3" s="531" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="498" t="s">
+      <c r="N3" s="525" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="498" t="s">
+      <c r="O3" s="525" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="498" t="s">
+      <c r="P3" s="525" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="518" t="s">
+      <c r="Q3" s="517" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="520" t="s">
+      <c r="R3" s="519" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="522" t="s">
+      <c r="S3" s="521" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="522" t="s">
+      <c r="T3" s="521" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="522" t="s">
+      <c r="U3" s="521" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="535" t="s">
+      <c r="V3" s="547" t="s">
         <v>72</v>
       </c>
       <c r="W3" s="543" t="s">
@@ -18060,51 +18132,51 @@
       <c r="AA3" s="541" t="s">
         <v>72</v>
       </c>
-      <c r="AB3" s="533" t="s">
+      <c r="AB3" s="545" t="s">
         <v>1</v>
       </c>
-      <c r="AC3" s="507"/>
-      <c r="AD3" s="508"/>
+      <c r="AC3" s="509"/>
+      <c r="AD3" s="510"/>
     </row>
     <row r="4" spans="2:30" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="420"/>
-      <c r="C4" s="422"/>
-      <c r="D4" s="422"/>
-      <c r="E4" s="424"/>
-      <c r="F4" s="425"/>
-      <c r="G4" s="425"/>
-      <c r="H4" s="425"/>
-      <c r="I4" s="425"/>
-      <c r="J4" s="501"/>
-      <c r="K4" s="501"/>
-      <c r="L4" s="501"/>
-      <c r="M4" s="505"/>
-      <c r="N4" s="499"/>
-      <c r="O4" s="499"/>
-      <c r="P4" s="499"/>
-      <c r="Q4" s="519"/>
-      <c r="R4" s="521"/>
-      <c r="S4" s="523"/>
-      <c r="T4" s="523"/>
-      <c r="U4" s="523"/>
-      <c r="V4" s="536"/>
+      <c r="B4" s="411"/>
+      <c r="C4" s="413"/>
+      <c r="D4" s="413"/>
+      <c r="E4" s="415"/>
+      <c r="F4" s="416"/>
+      <c r="G4" s="416"/>
+      <c r="H4" s="416"/>
+      <c r="I4" s="416"/>
+      <c r="J4" s="528"/>
+      <c r="K4" s="528"/>
+      <c r="L4" s="528"/>
+      <c r="M4" s="532"/>
+      <c r="N4" s="526"/>
+      <c r="O4" s="526"/>
+      <c r="P4" s="526"/>
+      <c r="Q4" s="518"/>
+      <c r="R4" s="520"/>
+      <c r="S4" s="522"/>
+      <c r="T4" s="522"/>
+      <c r="U4" s="522"/>
+      <c r="V4" s="548"/>
       <c r="W4" s="544"/>
       <c r="X4" s="540"/>
       <c r="Y4" s="540"/>
       <c r="Z4" s="540"/>
       <c r="AA4" s="542"/>
-      <c r="AB4" s="534"/>
-      <c r="AC4" s="509"/>
-      <c r="AD4" s="510"/>
+      <c r="AB4" s="546"/>
+      <c r="AC4" s="511"/>
+      <c r="AD4" s="512"/>
     </row>
     <row r="5" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="412" t="s">
+      <c r="B5" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="387" t="s">
+      <c r="C5" s="403" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="511" t="s">
+      <c r="D5" s="513" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21">
@@ -18159,9 +18231,9 @@
       <c r="AD5" s="11"/>
     </row>
     <row r="6" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="413"/>
-      <c r="C6" s="415"/>
-      <c r="D6" s="512"/>
+      <c r="B6" s="401"/>
+      <c r="C6" s="404"/>
+      <c r="D6" s="514"/>
       <c r="E6" s="35"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
@@ -18192,9 +18264,9 @@
       <c r="AD6" s="12"/>
     </row>
     <row r="7" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="413"/>
-      <c r="C7" s="415"/>
-      <c r="D7" s="513" t="s">
+      <c r="B7" s="401"/>
+      <c r="C7" s="404"/>
+      <c r="D7" s="515" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="22">
@@ -18235,9 +18307,9 @@
       <c r="AD7" s="12"/>
     </row>
     <row r="8" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="413"/>
-      <c r="C8" s="389"/>
-      <c r="D8" s="513"/>
+      <c r="B8" s="401"/>
+      <c r="C8" s="405"/>
+      <c r="D8" s="515"/>
       <c r="E8" s="35"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -18266,9 +18338,9 @@
       <c r="AD8" s="42"/>
     </row>
     <row r="9" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="414"/>
-      <c r="C9" s="389"/>
-      <c r="D9" s="537" t="s">
+      <c r="B9" s="402"/>
+      <c r="C9" s="405"/>
+      <c r="D9" s="536" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="22">
@@ -18319,9 +18391,9 @@
       <c r="AD9" s="12"/>
     </row>
     <row r="10" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="414"/>
-      <c r="C10" s="389"/>
-      <c r="D10" s="538"/>
+      <c r="B10" s="402"/>
+      <c r="C10" s="405"/>
+      <c r="D10" s="537"/>
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
@@ -18350,9 +18422,9 @@
       <c r="AD10" s="12"/>
     </row>
     <row r="11" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="414"/>
-      <c r="C11" s="389"/>
-      <c r="D11" s="537" t="s">
+      <c r="B11" s="402"/>
+      <c r="C11" s="405"/>
+      <c r="D11" s="536" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="22">
@@ -18399,9 +18471,9 @@
       <c r="AD11" s="12"/>
     </row>
     <row r="12" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="414"/>
-      <c r="C12" s="389"/>
-      <c r="D12" s="538"/>
+      <c r="B12" s="402"/>
+      <c r="C12" s="405"/>
+      <c r="D12" s="537"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
@@ -18432,9 +18504,9 @@
       <c r="AD12" s="12"/>
     </row>
     <row r="13" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="414"/>
-      <c r="C13" s="389"/>
-      <c r="D13" s="514" t="s">
+      <c r="B13" s="402"/>
+      <c r="C13" s="405"/>
+      <c r="D13" s="498" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="22">
@@ -18471,9 +18543,9 @@
       <c r="AD13" s="12"/>
     </row>
     <row r="14" spans="2:30" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="414"/>
-      <c r="C14" s="389"/>
-      <c r="D14" s="515"/>
+      <c r="B14" s="402"/>
+      <c r="C14" s="405"/>
+      <c r="D14" s="499"/>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
@@ -18504,9 +18576,9 @@
       <c r="AD14" s="12"/>
     </row>
     <row r="15" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="414"/>
-      <c r="C15" s="389"/>
-      <c r="D15" s="537" t="s">
+      <c r="B15" s="402"/>
+      <c r="C15" s="405"/>
+      <c r="D15" s="536" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="22">
@@ -18547,9 +18619,9 @@
       <c r="AD15" s="12"/>
     </row>
     <row r="16" spans="2:30" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="414"/>
-      <c r="C16" s="389"/>
-      <c r="D16" s="538"/>
+      <c r="B16" s="402"/>
+      <c r="C16" s="405"/>
+      <c r="D16" s="537"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -18580,9 +18652,9 @@
       <c r="AD16" s="12"/>
     </row>
     <row r="17" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="414"/>
-      <c r="C17" s="389"/>
-      <c r="D17" s="537" t="s">
+      <c r="B17" s="402"/>
+      <c r="C17" s="405"/>
+      <c r="D17" s="536" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="22">
@@ -18631,9 +18703,9 @@
       <c r="AD17" s="12"/>
     </row>
     <row r="18" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="414"/>
-      <c r="C18" s="389"/>
-      <c r="D18" s="538"/>
+      <c r="B18" s="402"/>
+      <c r="C18" s="405"/>
+      <c r="D18" s="537"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
@@ -18664,9 +18736,9 @@
       <c r="AD18" s="12"/>
     </row>
     <row r="19" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="414"/>
-      <c r="C19" s="389"/>
-      <c r="D19" s="514" t="s">
+      <c r="B19" s="402"/>
+      <c r="C19" s="405"/>
+      <c r="D19" s="498" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="22">
@@ -18705,9 +18777,9 @@
       <c r="AD19" s="12"/>
     </row>
     <row r="20" spans="2:30" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="414"/>
-      <c r="C20" s="389"/>
-      <c r="D20" s="515"/>
+      <c r="B20" s="402"/>
+      <c r="C20" s="405"/>
+      <c r="D20" s="499"/>
       <c r="E20" s="35"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
@@ -18738,8 +18810,8 @@
       <c r="AD20" s="12"/>
     </row>
     <row r="21" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="414"/>
-      <c r="C21" s="389"/>
+      <c r="B21" s="402"/>
+      <c r="C21" s="405"/>
       <c r="D21" s="493" t="s">
         <v>32</v>
       </c>
@@ -18781,9 +18853,9 @@
       <c r="AD21" s="12"/>
     </row>
     <row r="22" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="414"/>
-      <c r="C22" s="389"/>
-      <c r="D22" s="547"/>
+      <c r="B22" s="402"/>
+      <c r="C22" s="405"/>
+      <c r="D22" s="535"/>
       <c r="E22" s="35"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
@@ -18814,8 +18886,8 @@
       <c r="AD22" s="12"/>
     </row>
     <row r="23" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="414"/>
-      <c r="C23" s="389"/>
+      <c r="B23" s="402"/>
+      <c r="C23" s="405"/>
       <c r="D23" s="63" t="s">
         <v>55</v>
       </c>
@@ -18857,8 +18929,8 @@
       <c r="AD23" s="12"/>
     </row>
     <row r="24" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="414"/>
-      <c r="C24" s="389"/>
+      <c r="B24" s="402"/>
+      <c r="C24" s="405"/>
       <c r="D24" s="63"/>
       <c r="E24" s="35"/>
       <c r="F24" s="36"/>
@@ -18888,8 +18960,8 @@
       <c r="AD24" s="12"/>
     </row>
     <row r="25" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="414"/>
-      <c r="C25" s="389"/>
+      <c r="B25" s="402"/>
+      <c r="C25" s="405"/>
       <c r="D25" s="493" t="s">
         <v>50</v>
       </c>
@@ -18929,9 +19001,9 @@
       <c r="AD25" s="12"/>
     </row>
     <row r="26" spans="2:30" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="414"/>
-      <c r="C26" s="390"/>
-      <c r="D26" s="528"/>
+      <c r="B26" s="402"/>
+      <c r="C26" s="406"/>
+      <c r="D26" s="502"/>
       <c r="E26" s="19"/>
       <c r="F26" s="14"/>
       <c r="G26" s="13"/>
@@ -18962,11 +19034,11 @@
       <c r="AD26" s="17"/>
     </row>
     <row r="27" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="414"/>
-      <c r="C27" s="418" t="s">
+      <c r="B27" s="402"/>
+      <c r="C27" s="409" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="529" t="s">
+      <c r="D27" s="503" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="21">
@@ -19007,9 +19079,9 @@
       <c r="AD27" s="11"/>
     </row>
     <row r="28" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="414"/>
-      <c r="C28" s="413"/>
-      <c r="D28" s="515"/>
+      <c r="B28" s="402"/>
+      <c r="C28" s="401"/>
+      <c r="D28" s="499"/>
       <c r="E28" s="18"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
@@ -19040,9 +19112,9 @@
       <c r="AD28" s="12"/>
     </row>
     <row r="29" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="414"/>
-      <c r="C29" s="414"/>
-      <c r="D29" s="514" t="s">
+      <c r="B29" s="402"/>
+      <c r="C29" s="402"/>
+      <c r="D29" s="498" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="22">
@@ -19081,9 +19153,9 @@
       <c r="AD29" s="12"/>
     </row>
     <row r="30" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="414"/>
-      <c r="C30" s="414"/>
-      <c r="D30" s="515"/>
+      <c r="B30" s="402"/>
+      <c r="C30" s="402"/>
+      <c r="D30" s="499"/>
       <c r="E30" s="18"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
@@ -19114,9 +19186,9 @@
       <c r="AD30" s="12"/>
     </row>
     <row r="31" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="414"/>
-      <c r="C31" s="414"/>
-      <c r="D31" s="514" t="s">
+      <c r="B31" s="402"/>
+      <c r="C31" s="402"/>
+      <c r="D31" s="498" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="22">
@@ -19155,9 +19227,9 @@
       <c r="AD31" s="12"/>
     </row>
     <row r="32" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="414"/>
-      <c r="C32" s="414"/>
-      <c r="D32" s="515"/>
+      <c r="B32" s="402"/>
+      <c r="C32" s="402"/>
+      <c r="D32" s="499"/>
       <c r="E32" s="18"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -19188,9 +19260,9 @@
       <c r="AD32" s="12"/>
     </row>
     <row r="33" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="414"/>
-      <c r="C33" s="414"/>
-      <c r="D33" s="514" t="s">
+      <c r="B33" s="402"/>
+      <c r="C33" s="402"/>
+      <c r="D33" s="498" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="22">
@@ -19229,9 +19301,9 @@
       <c r="AD33" s="12"/>
     </row>
     <row r="34" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="414"/>
-      <c r="C34" s="414"/>
-      <c r="D34" s="515"/>
+      <c r="B34" s="402"/>
+      <c r="C34" s="402"/>
+      <c r="D34" s="499"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
@@ -19262,9 +19334,9 @@
       <c r="AD34" s="12"/>
     </row>
     <row r="35" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="414"/>
-      <c r="C35" s="414"/>
-      <c r="D35" s="537" t="s">
+      <c r="B35" s="402"/>
+      <c r="C35" s="402"/>
+      <c r="D35" s="536" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="22">
@@ -19305,9 +19377,9 @@
       <c r="AD35" s="12"/>
     </row>
     <row r="36" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="414"/>
-      <c r="C36" s="414"/>
-      <c r="D36" s="538"/>
+      <c r="B36" s="402"/>
+      <c r="C36" s="402"/>
+      <c r="D36" s="537"/>
       <c r="E36" s="18"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
@@ -19338,9 +19410,9 @@
       <c r="AD36" s="12"/>
     </row>
     <row r="37" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="414"/>
-      <c r="C37" s="414"/>
-      <c r="D37" s="537" t="s">
+      <c r="B37" s="402"/>
+      <c r="C37" s="402"/>
+      <c r="D37" s="536" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="22">
@@ -19379,9 +19451,9 @@
       <c r="AD37" s="12"/>
     </row>
     <row r="38" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="414"/>
-      <c r="C38" s="414"/>
-      <c r="D38" s="538"/>
+      <c r="B38" s="402"/>
+      <c r="C38" s="402"/>
+      <c r="D38" s="537"/>
       <c r="E38" s="18"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
@@ -19412,9 +19484,9 @@
       <c r="AD38" s="12"/>
     </row>
     <row r="39" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="414"/>
-      <c r="C39" s="414"/>
-      <c r="D39" s="514" t="s">
+      <c r="B39" s="402"/>
+      <c r="C39" s="402"/>
+      <c r="D39" s="498" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="22">
@@ -19449,9 +19521,9 @@
       <c r="AD39" s="12"/>
     </row>
     <row r="40" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="414"/>
-      <c r="C40" s="414"/>
-      <c r="D40" s="548"/>
+      <c r="B40" s="402"/>
+      <c r="C40" s="402"/>
+      <c r="D40" s="538"/>
       <c r="E40" s="18"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
@@ -19482,9 +19554,9 @@
       <c r="AD40" s="12"/>
     </row>
     <row r="41" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="414"/>
-      <c r="C41" s="414"/>
-      <c r="D41" s="545" t="s">
+      <c r="B41" s="402"/>
+      <c r="C41" s="402"/>
+      <c r="D41" s="533" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="22">
@@ -19525,7 +19597,7 @@
     <row r="42" spans="2:30" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="492"/>
       <c r="C42" s="492"/>
-      <c r="D42" s="546"/>
+      <c r="D42" s="534"/>
       <c r="E42" s="19"/>
       <c r="F42" s="14"/>
       <c r="G42" s="13"/>
@@ -19888,23 +19960,22 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="49">
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="B2:AD2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="AB3:AD4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
     <mergeCell ref="B5:B42"/>
     <mergeCell ref="C5:C26"/>
     <mergeCell ref="D5:D6"/>
@@ -19921,22 +19992,23 @@
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="D35:D36"/>
-    <mergeCell ref="B2:AD2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="AB3:AD4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
